--- a/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
+++ b/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\8. Semester\Bachelorarbeit\TestaufbauGit\Testaufbau\Testaufbau\BenchmarkResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85784861-828F-4384-84A7-743D8B55768B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DD5093-73BC-458D-9908-1C3A625205A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="2890" windowWidth="18900" windowHeight="11860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RestClient.Benchmark.GetArticle" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
   <si>
     <t>Method</t>
   </si>
@@ -344,6 +344,195 @@
   </si>
   <si>
     <t>TotalTime: 26:29</t>
+  </si>
+  <si>
+    <t>Mit ToListAsync() bei OrdersWithOrderItems</t>
+  </si>
+  <si>
+    <t>1.724 ms</t>
+  </si>
+  <si>
+    <t>0.0173 ms</t>
+  </si>
+  <si>
+    <t>0.0145 ms</t>
+  </si>
+  <si>
+    <t>3.678 ms</t>
+  </si>
+  <si>
+    <t>0.0533 ms</t>
+  </si>
+  <si>
+    <t>0.0472 ms</t>
+  </si>
+  <si>
+    <t>3.505 ms</t>
+  </si>
+  <si>
+    <t>0.0244 ms</t>
+  </si>
+  <si>
+    <t>0.0488 ms</t>
+  </si>
+  <si>
+    <t>2.042 ms</t>
+  </si>
+  <si>
+    <t>0.0187 ms</t>
+  </si>
+  <si>
+    <t>0.0146 ms</t>
+  </si>
+  <si>
+    <t>1.827 ms</t>
+  </si>
+  <si>
+    <t>0.0297 ms</t>
+  </si>
+  <si>
+    <t>0.0278 ms</t>
+  </si>
+  <si>
+    <t>3.684 ms</t>
+  </si>
+  <si>
+    <t>0.0607 ms</t>
+  </si>
+  <si>
+    <t>0.0568 ms</t>
+  </si>
+  <si>
+    <t>19.404 ms</t>
+  </si>
+  <si>
+    <t>0.3811 ms</t>
+  </si>
+  <si>
+    <t>0.3565 ms</t>
+  </si>
+  <si>
+    <t>2.285 ms</t>
+  </si>
+  <si>
+    <t>0.0453 ms</t>
+  </si>
+  <si>
+    <t>0.0745 ms</t>
+  </si>
+  <si>
+    <t>2.535 ms</t>
+  </si>
+  <si>
+    <t>0.0477 ms</t>
+  </si>
+  <si>
+    <t>0.0446 ms</t>
+  </si>
+  <si>
+    <t>3.860 ms</t>
+  </si>
+  <si>
+    <t>0.0499 ms</t>
+  </si>
+  <si>
+    <t>0.0416 ms</t>
+  </si>
+  <si>
+    <t>175.584 ms</t>
+  </si>
+  <si>
+    <t>2.0780 ms</t>
+  </si>
+  <si>
+    <t>1.8421 ms</t>
+  </si>
+  <si>
+    <t>3.450 ms</t>
+  </si>
+  <si>
+    <t>0.0414 ms</t>
+  </si>
+  <si>
+    <t>0.0367 ms</t>
+  </si>
+  <si>
+    <t>9.120 ms</t>
+  </si>
+  <si>
+    <t>0.1811 ms</t>
+  </si>
+  <si>
+    <t>0.3860 ms</t>
+  </si>
+  <si>
+    <t>5.140 ms</t>
+  </si>
+  <si>
+    <t>0.0612 ms</t>
+  </si>
+  <si>
+    <t>0.0543 ms</t>
+  </si>
+  <si>
+    <t>1,747.136 ms</t>
+  </si>
+  <si>
+    <t>17.4654 ms</t>
+  </si>
+  <si>
+    <t>16.3371 ms</t>
+  </si>
+  <si>
+    <t>15.707 ms</t>
+  </si>
+  <si>
+    <t>0.2982 ms</t>
+  </si>
+  <si>
+    <t>0.6546 ms</t>
+  </si>
+  <si>
+    <t>68.935 ms</t>
+  </si>
+  <si>
+    <t>1.3413 ms</t>
+  </si>
+  <si>
+    <t>1.3774 ms</t>
+  </si>
+  <si>
+    <t>15.177 ms</t>
+  </si>
+  <si>
+    <t>0.2966 ms</t>
+  </si>
+  <si>
+    <t>0.2774 ms</t>
+  </si>
+  <si>
+    <t>17,406.282 ms</t>
+  </si>
+  <si>
+    <t>72.2577 ms</t>
+  </si>
+  <si>
+    <t>67.5899 ms</t>
+  </si>
+  <si>
+    <t>132.789 ms</t>
+  </si>
+  <si>
+    <t>2.2503 ms</t>
+  </si>
+  <si>
+    <t>4.1711 ms</t>
+  </si>
+  <si>
+    <t>TotalTime: 14:46</t>
+  </si>
+  <si>
+    <t>gRPC:</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H31"/>
+  <dimension ref="A3:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1639,6 +1828,11 @@
         <v>106</v>
       </c>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>90</v>
@@ -1727,9 +1921,374 @@
         <v>107</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>10000</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>1000</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>10000</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>1000</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>10000</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55">
+        <v>10000</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F24">
-    <sortCondition ref="A5:A24" customList="GetArticles,GetReducedArticles,GetArticlesWithPriceChatty,GetArticlesWithPriceBulky"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:E55">
+    <sortCondition ref="A36:A55" customList="GetArticles,GetReducedArticles,GetArticlesWithPriceChatty,GetArticlesWithPriceBulky"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
+++ b/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\8. Semester\Bachelorarbeit\TestaufbauGit\Testaufbau\Testaufbau\BenchmarkResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DD5093-73BC-458D-9908-1C3A625205A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760D0BD1-2D1C-4C43-A714-FB6A6971255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2890" windowWidth="18900" windowHeight="11860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RestClient.Benchmark.GetArticle" sheetId="1" r:id="rId1"/>
+    <sheet name="BenchmarkResults" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="235">
   <si>
     <t>Method</t>
   </si>
@@ -533,6 +533,198 @@
   </si>
   <si>
     <t>gRPC:</t>
+  </si>
+  <si>
+    <t>GraphQl</t>
+  </si>
+  <si>
+    <t>1.084 ms</t>
+  </si>
+  <si>
+    <t>0.0112 ms</t>
+  </si>
+  <si>
+    <t>0.0105 ms</t>
+  </si>
+  <si>
+    <t>1.058 ms</t>
+  </si>
+  <si>
+    <t>0.0205 ms</t>
+  </si>
+  <si>
+    <t>GetArticlesWithPrice</t>
+  </si>
+  <si>
+    <t>1.919 ms</t>
+  </si>
+  <si>
+    <t>0.0268 ms</t>
+  </si>
+  <si>
+    <t>0.0251 ms</t>
+  </si>
+  <si>
+    <t>1.185 ms</t>
+  </si>
+  <si>
+    <t>0.0110 ms</t>
+  </si>
+  <si>
+    <t>0.0092 ms</t>
+  </si>
+  <si>
+    <t>1.107 ms</t>
+  </si>
+  <si>
+    <t>0.0217 ms</t>
+  </si>
+  <si>
+    <t>0.0203 ms</t>
+  </si>
+  <si>
+    <t>9.371 ms</t>
+  </si>
+  <si>
+    <t>0.1696 ms</t>
+  </si>
+  <si>
+    <t>0.1586 ms</t>
+  </si>
+  <si>
+    <t>2.165 ms</t>
+  </si>
+  <si>
+    <t>0.0312 ms</t>
+  </si>
+  <si>
+    <t>0.0277 ms</t>
+  </si>
+  <si>
+    <t>1.557 ms</t>
+  </si>
+  <si>
+    <t>0.0102 ms</t>
+  </si>
+  <si>
+    <t>0.0079 ms</t>
+  </si>
+  <si>
+    <t>84.642 ms</t>
+  </si>
+  <si>
+    <t>0.6412 ms</t>
+  </si>
+  <si>
+    <t>0.5355 ms</t>
+  </si>
+  <si>
+    <t>11.177 ms</t>
+  </si>
+  <si>
+    <t>0.0864 ms</t>
+  </si>
+  <si>
+    <t>0.0766 ms</t>
+  </si>
+  <si>
+    <t>6.147 ms</t>
+  </si>
+  <si>
+    <t>0.0639 ms</t>
+  </si>
+  <si>
+    <t>0.0534 ms</t>
+  </si>
+  <si>
+    <t>820.182 ms</t>
+  </si>
+  <si>
+    <t>8.7843 ms</t>
+  </si>
+  <si>
+    <t>7.3352 ms</t>
+  </si>
+  <si>
+    <t>100.656 ms</t>
+  </si>
+  <si>
+    <t>1.6371 ms</t>
+  </si>
+  <si>
+    <t>1.4512 ms</t>
+  </si>
+  <si>
+    <t>52.337 ms</t>
+  </si>
+  <si>
+    <t>0.6480 ms</t>
+  </si>
+  <si>
+    <t>0.6061 ms</t>
+  </si>
+  <si>
+    <t>8,402.723 ms</t>
+  </si>
+  <si>
+    <t>57.3451 ms</t>
+  </si>
+  <si>
+    <t>50.8349 ms</t>
+  </si>
+  <si>
+    <t>NumberOfOrders</t>
+  </si>
+  <si>
+    <t>3.247 ms</t>
+  </si>
+  <si>
+    <t>0.0645 ms</t>
+  </si>
+  <si>
+    <t>0.1179 ms</t>
+  </si>
+  <si>
+    <t>36.664 ms</t>
+  </si>
+  <si>
+    <t>0.7296 ms</t>
+  </si>
+  <si>
+    <t>0.7165 ms</t>
+  </si>
+  <si>
+    <t>313.824 ms</t>
+  </si>
+  <si>
+    <t>5.9499 ms</t>
+  </si>
+  <si>
+    <t>6.1101 ms</t>
+  </si>
+  <si>
+    <t>3,281.162 ms</t>
+  </si>
+  <si>
+    <t>25.7327 ms</t>
+  </si>
+  <si>
+    <t>24.0704 ms</t>
+  </si>
+  <si>
+    <t>64,717.229 ms</t>
+  </si>
+  <si>
+    <t>122.5409 ms</t>
+  </si>
+  <si>
+    <t>114.6249 ms</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Grpc</t>
   </si>
 </sst>
 </file>
@@ -1386,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H55"/>
+  <dimension ref="A3:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1398,14 +1590,18 @@
     <col min="2" max="2" width="20.6328125" customWidth="1"/>
     <col min="3" max="6" width="20.6328125" style="2" customWidth="1"/>
     <col min="8" max="8" width="34" style="4" customWidth="1"/>
+    <col min="11" max="11" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1424,8 +1620,20 @@
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1444,8 +1652,20 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1464,8 +1684,20 @@
       <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1484,8 +1716,20 @@
       <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1504,8 +1748,20 @@
       <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1524,8 +1780,20 @@
       <c r="F9" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1564,8 +1832,11 @@
       <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1584,8 +1855,20 @@
       <c r="F12" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" t="s">
+        <v>234</v>
+      </c>
+      <c r="N12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1604,8 +1887,20 @@
       <c r="F13" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1624,8 +1919,20 @@
       <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1644,8 +1951,20 @@
       <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1664,8 +1983,20 @@
       <c r="F16" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1684,8 +2015,20 @@
       <c r="F17" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K17">
+        <v>10000</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1704,8 +2047,9 @@
       <c r="F18" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1724,8 +2068,11 @@
       <c r="F19" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1744,8 +2091,20 @@
       <c r="F20" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" t="s">
+        <v>234</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1764,8 +2123,20 @@
       <c r="F21" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1784,8 +2155,20 @@
       <c r="F22" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1804,8 +2187,20 @@
       <c r="F23" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1827,13 +2222,39 @@
       <c r="H24" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K24">
+        <v>1000</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K25">
+        <v>10000</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -1849,8 +2270,11 @@
       <c r="E27" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -1866,8 +2290,20 @@
       <c r="E28" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M28" t="s">
+        <v>234</v>
+      </c>
+      <c r="N28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -1883,8 +2319,20 @@
       <c r="E29" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -1900,8 +2348,20 @@
       <c r="E30" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1920,13 +2380,53 @@
       <c r="H31" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K32">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K33">
+        <v>10000</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +2443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +2460,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1977,7 +2477,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1994,7 +2494,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2011,7 +2511,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2028,7 +2528,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2045,7 +2545,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -2062,7 +2562,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2579,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -2096,7 +2596,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2113,7 +2613,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -2130,7 +2630,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -2147,7 +2647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -2286,9 +2786,388 @@
         <v>169</v>
       </c>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>1000</v>
+      </c>
+      <c r="C63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>10000</v>
+      </c>
+      <c r="C64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>100</v>
+      </c>
+      <c r="C67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>1000</v>
+      </c>
+      <c r="C68" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>10000</v>
+      </c>
+      <c r="C69" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" t="s">
+        <v>197</v>
+      </c>
+      <c r="E72" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73">
+        <v>1000</v>
+      </c>
+      <c r="C73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74">
+        <v>10000</v>
+      </c>
+      <c r="C74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80">
+        <v>1000</v>
+      </c>
+      <c r="C80" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81">
+        <v>10000</v>
+      </c>
+      <c r="C81" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:E55">
-    <sortCondition ref="A36:A55" customList="GetArticles,GetReducedArticles,GetArticlesWithPriceChatty,GetArticlesWithPriceBulky"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:E74">
+    <sortCondition ref="A60:A74" customList="GetArticles,GetReducedArticles,GetArticlesWithPriceChatty,GetArticlesWithPriceBulky"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
+++ b/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\8. Semester\Bachelorarbeit\TestaufbauGit\Testaufbau\Testaufbau\BenchmarkResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760D0BD1-2D1C-4C43-A714-FB6A6971255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4FDBA-621B-45D8-99E3-862CAB7C9906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BenchmarkResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="349">
   <si>
     <t>Method</t>
   </si>
@@ -529,9 +529,6 @@
     <t>4.1711 ms</t>
   </si>
   <si>
-    <t>TotalTime: 14:46</t>
-  </si>
-  <si>
     <t>gRPC:</t>
   </si>
   <si>
@@ -725,6 +722,351 @@
   </si>
   <si>
     <t>Grpc</t>
+  </si>
+  <si>
+    <t>Für Visualisierung</t>
+  </si>
+  <si>
+    <t>183.7984 ms</t>
+  </si>
+  <si>
+    <t>207.3365 ms</t>
+  </si>
+  <si>
+    <t>226,036.055 ms</t>
+  </si>
+  <si>
+    <t>13.1636 ms</t>
+  </si>
+  <si>
+    <t>14.0727 ms</t>
+  </si>
+  <si>
+    <t>4,573.666 ms</t>
+  </si>
+  <si>
+    <t>5.6841 ms</t>
+  </si>
+  <si>
+    <t>5.1139 ms</t>
+  </si>
+  <si>
+    <t>285.412 ms</t>
+  </si>
+  <si>
+    <t>0.3477 ms</t>
+  </si>
+  <si>
+    <t>0.3922 ms</t>
+  </si>
+  <si>
+    <t>32.059 ms</t>
+  </si>
+  <si>
+    <t>0.0592 ms</t>
+  </si>
+  <si>
+    <t>0.0576 ms</t>
+  </si>
+  <si>
+    <t>3.001 ms</t>
+  </si>
+  <si>
+    <t>GraphQl:</t>
+  </si>
+  <si>
+    <t>1.563 ms</t>
+  </si>
+  <si>
+    <t>0.0192 ms</t>
+  </si>
+  <si>
+    <t>3.465 ms</t>
+  </si>
+  <si>
+    <t>0.0668 ms</t>
+  </si>
+  <si>
+    <t>0.0625 ms</t>
+  </si>
+  <si>
+    <t>3.139 ms</t>
+  </si>
+  <si>
+    <t>0.0586 ms</t>
+  </si>
+  <si>
+    <t>0.0548 ms</t>
+  </si>
+  <si>
+    <t>6.772 ms</t>
+  </si>
+  <si>
+    <t>0.0812 ms</t>
+  </si>
+  <si>
+    <t>0.0760 ms</t>
+  </si>
+  <si>
+    <t>1.636 ms</t>
+  </si>
+  <si>
+    <t>0.0227 ms</t>
+  </si>
+  <si>
+    <t>0.0212 ms</t>
+  </si>
+  <si>
+    <t>3.495 ms</t>
+  </si>
+  <si>
+    <t>0.0573 ms</t>
+  </si>
+  <si>
+    <t>17.508 ms</t>
+  </si>
+  <si>
+    <t>0.3443 ms</t>
+  </si>
+  <si>
+    <t>0.3381 ms</t>
+  </si>
+  <si>
+    <t>9.534 ms</t>
+  </si>
+  <si>
+    <t>0.0877 ms</t>
+  </si>
+  <si>
+    <t>0.0820 ms</t>
+  </si>
+  <si>
+    <t>2.288 ms</t>
+  </si>
+  <si>
+    <t>0.0339 ms</t>
+  </si>
+  <si>
+    <t>0.0317 ms</t>
+  </si>
+  <si>
+    <t>3.562 ms</t>
+  </si>
+  <si>
+    <t>0.0482 ms</t>
+  </si>
+  <si>
+    <t>0.0403 ms</t>
+  </si>
+  <si>
+    <t>156.752 ms</t>
+  </si>
+  <si>
+    <t>0.9636 ms</t>
+  </si>
+  <si>
+    <t>0.7523 ms</t>
+  </si>
+  <si>
+    <t>10.887 ms</t>
+  </si>
+  <si>
+    <t>0.2079 ms</t>
+  </si>
+  <si>
+    <t>0.2135 ms</t>
+  </si>
+  <si>
+    <t>8.722 ms</t>
+  </si>
+  <si>
+    <t>0.1742 ms</t>
+  </si>
+  <si>
+    <t>0.4037 ms</t>
+  </si>
+  <si>
+    <t>5.360 ms</t>
+  </si>
+  <si>
+    <t>0.1045 ms</t>
+  </si>
+  <si>
+    <t>0.0873 ms</t>
+  </si>
+  <si>
+    <t>1,573.788 ms</t>
+  </si>
+  <si>
+    <t>20.3529 ms</t>
+  </si>
+  <si>
+    <t>19.0381 ms</t>
+  </si>
+  <si>
+    <t>20.208 ms</t>
+  </si>
+  <si>
+    <t>0.3986 ms</t>
+  </si>
+  <si>
+    <t>0.3914 ms</t>
+  </si>
+  <si>
+    <t>66.749 ms</t>
+  </si>
+  <si>
+    <t>1.1103 ms</t>
+  </si>
+  <si>
+    <t>0.9843 ms</t>
+  </si>
+  <si>
+    <t>13.668 ms</t>
+  </si>
+  <si>
+    <t>0.0804 ms</t>
+  </si>
+  <si>
+    <t>15,675.662 ms</t>
+  </si>
+  <si>
+    <t>34.3526 ms</t>
+  </si>
+  <si>
+    <t>28.6860 ms</t>
+  </si>
+  <si>
+    <t>139.682 ms</t>
+  </si>
+  <si>
+    <t>2.7744 ms</t>
+  </si>
+  <si>
+    <t>4.4802 ms</t>
+  </si>
+  <si>
+    <t>59.7956 ms</t>
+  </si>
+  <si>
+    <t>63.9251 ms</t>
+  </si>
+  <si>
+    <t>8,211.363 ms</t>
+  </si>
+  <si>
+    <t>1.9019 ms</t>
+  </si>
+  <si>
+    <t>0.8836 ms</t>
+  </si>
+  <si>
+    <t>52.343 ms</t>
+  </si>
+  <si>
+    <t>3.1704 ms</t>
+  </si>
+  <si>
+    <t>1.8671 ms</t>
+  </si>
+  <si>
+    <t>99.135 ms</t>
+  </si>
+  <si>
+    <t>12.9150 ms</t>
+  </si>
+  <si>
+    <t>13.8069 ms</t>
+  </si>
+  <si>
+    <t>1,471.330 ms</t>
+  </si>
+  <si>
+    <t>0.1353 ms</t>
+  </si>
+  <si>
+    <t>0.1527 ms</t>
+  </si>
+  <si>
+    <t>8.392 ms</t>
+  </si>
+  <si>
+    <t>0.3549 ms</t>
+  </si>
+  <si>
+    <t>0.2890 ms</t>
+  </si>
+  <si>
+    <t>14.836 ms</t>
+  </si>
+  <si>
+    <t>2.9820 ms</t>
+  </si>
+  <si>
+    <t>2.9038 ms</t>
+  </si>
+  <si>
+    <t>149.242 ms</t>
+  </si>
+  <si>
+    <t>0.0358 ms</t>
+  </si>
+  <si>
+    <t>0.0383 ms</t>
+  </si>
+  <si>
+    <t>2.802 ms</t>
+  </si>
+  <si>
+    <t>0.0413 ms</t>
+  </si>
+  <si>
+    <t>0.0466 ms</t>
+  </si>
+  <si>
+    <t>3.573 ms</t>
+  </si>
+  <si>
+    <t>0.3196 ms</t>
+  </si>
+  <si>
+    <t>0.3254 ms</t>
+  </si>
+  <si>
+    <t>16.989 ms</t>
+  </si>
+  <si>
+    <t>0.0377 ms</t>
+  </si>
+  <si>
+    <t>2.160 ms</t>
+  </si>
+  <si>
+    <t>2.290 ms</t>
+  </si>
+  <si>
+    <t>0.0389 ms</t>
+  </si>
+  <si>
+    <t>0.0415 ms</t>
+  </si>
+  <si>
+    <t>3.623 ms</t>
+  </si>
+  <si>
+    <t>0.0348 ms</t>
+  </si>
+  <si>
+    <t>0.0393 ms</t>
+  </si>
+  <si>
+    <t>2.080 ms</t>
+  </si>
+  <si>
+    <t>0.0400 ms</t>
+  </si>
+  <si>
+    <t>0.0408 ms</t>
   </si>
 </sst>
 </file>
@@ -870,7 +1212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,8 +1392,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1166,6 +1520,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1211,7 +1580,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1223,6 +1592,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1578,37 +1968,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N81"/>
+  <dimension ref="A3:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="F20" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="6" width="20.6328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.26953125" customWidth="1"/>
+    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1620,27 +2013,15 @@
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M4" t="s">
-        <v>234</v>
-      </c>
-      <c r="N4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1652,27 +2033,15 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1684,27 +2053,15 @@
       <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>100</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1716,27 +2073,15 @@
       <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K7">
-        <v>100</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>1000</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1748,27 +2093,15 @@
       <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K8">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>10000</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1780,27 +2113,15 @@
       <c r="F9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K9">
-        <v>10000</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1813,14 +2134,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1832,18 +2153,15 @@
       <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>100</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1855,27 +2173,15 @@
       <c r="F12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M12" t="s">
-        <v>234</v>
-      </c>
-      <c r="N12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>1000</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1887,27 +2193,15 @@
       <c r="F13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>10000</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1919,27 +2213,15 @@
       <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1951,27 +2233,15 @@
       <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1983,27 +2253,15 @@
       <c r="F16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K16">
-        <v>1000</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>100</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2015,27 +2273,15 @@
       <c r="F17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K17">
-        <v>10000</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>1000</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2047,16 +2293,15 @@
       <c r="F18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>10000</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2068,18 +2313,15 @@
       <c r="F19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2091,27 +2333,15 @@
       <c r="F20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M20" t="s">
-        <v>234</v>
-      </c>
-      <c r="N20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>10</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2123,27 +2353,15 @@
       <c r="F21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>100</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2155,27 +2373,15 @@
       <c r="F22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K22">
-        <v>10</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>1000</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2187,27 +2393,15 @@
       <c r="F23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K23">
-        <v>100</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>10000</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2219,49 +2413,27 @@
       <c r="F24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K24">
-        <v>1000</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="N24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K25">
-        <v>10000</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>90</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2270,18 +2442,16 @@
       <c r="E27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>90</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>10</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2290,27 +2460,16 @@
       <c r="E28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M28" t="s">
-        <v>234</v>
-      </c>
-      <c r="N28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>90</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>100</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2319,27 +2478,16 @@
       <c r="E29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>1000</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2348,27 +2496,16 @@
       <c r="E30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K30">
-        <v>10</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>90</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>10000</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="7" t="s">
         <v>103</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2377,63 +2514,23 @@
       <c r="E31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K31">
-        <v>100</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K32">
-        <v>1000</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="N32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K33">
-        <v>10000</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="N33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
@@ -2442,15 +2539,30 @@
       <c r="E35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2459,15 +2571,30 @@
       <c r="E36" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>10</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2476,15 +2603,30 @@
       <c r="E37" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>100</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2493,15 +2635,30 @@
       <c r="E38" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>1000</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="7" t="s">
         <v>145</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2510,15 +2667,30 @@
       <c r="E39" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>1000</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>10000</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="7" t="s">
         <v>157</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2527,15 +2699,30 @@
       <c r="E40" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>10000</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>1</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2544,15 +2731,30 @@
       <c r="E41" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>10</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2561,15 +2763,30 @@
       <c r="E42" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>100</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2578,15 +2795,30 @@
       <c r="E43" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>1000</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="7" t="s">
         <v>148</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2595,15 +2827,30 @@
       <c r="E44" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <v>1000</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>10000</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2612,15 +2859,30 @@
       <c r="E45" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <v>10000</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>16</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>1</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2629,15 +2891,30 @@
       <c r="E46" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>16</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="6">
         <v>10</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2646,15 +2923,30 @@
       <c r="E47" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>16</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="6">
         <v>100</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -2663,15 +2955,30 @@
       <c r="E48" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>16</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="6">
         <v>1000</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="7" t="s">
         <v>151</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -2680,15 +2987,30 @@
       <c r="E49" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>16</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="6">
         <v>10000</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -2697,15 +3019,30 @@
       <c r="E50" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>10000</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>21</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="6">
         <v>1</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="7" t="s">
         <v>118</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -2714,15 +3051,30 @@
       <c r="E51" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>21</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="6">
         <v>10</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -2731,15 +3083,30 @@
       <c r="E52" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52">
+        <v>10</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>21</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="6">
         <v>100</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="7" t="s">
         <v>142</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2748,15 +3115,30 @@
       <c r="E53" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>21</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="6">
         <v>1000</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="7" t="s">
         <v>154</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2765,15 +3147,30 @@
       <c r="E54" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54">
+        <v>1000</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>21</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="6">
         <v>10000</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2782,392 +3179,1129 @@
       <c r="E55" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G55" s="5"/>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55">
+        <v>10000</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="6">
+        <v>10</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="6">
+        <v>100</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67" t="s">
+        <v>3</v>
+      </c>
+      <c r="L67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="6">
+        <v>1</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="D68" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H68" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="6">
+        <v>10</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="6">
+        <v>100</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>100</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>1000</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>10000</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="6">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="6">
+        <v>10</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="6">
+        <v>100</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75">
+        <v>100</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76">
+        <v>1000</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77">
+        <v>10000</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" s="6">
+        <v>1</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H78" t="s">
+        <v>176</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="6">
+        <v>10</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" t="s">
+        <v>176</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="6">
+        <v>100</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H80" t="s">
+        <v>176</v>
+      </c>
+      <c r="I80">
+        <v>100</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H81" t="s">
+        <v>176</v>
+      </c>
+      <c r="I81">
+        <v>1000</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H82" t="s">
+        <v>176</v>
+      </c>
+      <c r="I82">
+        <v>10000</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>0</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B84" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="6">
         <v>1</v>
       </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="C85" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="6">
+        <v>10</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="6">
+        <v>100</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>6</v>
       </c>
-      <c r="B60">
+      <c r="C155" s="11"/>
+      <c r="D155"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C60" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" t="s">
-        <v>173</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="B156" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D156" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D157" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>10</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D158" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>100</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>1000</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D160" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>10000</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D161" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C162" s="11"/>
+      <c r="D162"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="11"/>
+      <c r="D163"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D164" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D165" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166">
         <v>10</v>
       </c>
-      <c r="C61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="B166" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D166" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167">
         <v>100</v>
       </c>
-      <c r="C62" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" t="s">
-        <v>191</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="B167" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D167" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168">
         <v>1000</v>
       </c>
-      <c r="C63" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63" t="s">
-        <v>200</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="B168" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D168" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169">
         <v>10000</v>
       </c>
-      <c r="C64" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" t="s">
-        <v>209</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="B169" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D169" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B170" s="13"/>
+      <c r="C170" s="11"/>
+      <c r="D170"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" s="11"/>
+      <c r="D171"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C65" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" t="s">
-        <v>176</v>
-      </c>
-      <c r="E65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66">
+      <c r="B172" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D172" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174">
         <v>10</v>
       </c>
-      <c r="C66" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" t="s">
-        <v>185</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="B174" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D174" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>100</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D175" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>1000</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D176" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>10000</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D177" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C178" s="11"/>
+      <c r="D178"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D180" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D181" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>10</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D182" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183">
         <v>100</v>
       </c>
-      <c r="C67" t="s">
-        <v>193</v>
-      </c>
-      <c r="D67" t="s">
-        <v>194</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="B183" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D183" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184">
         <v>1000</v>
       </c>
-      <c r="C68" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" t="s">
-        <v>203</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="B184" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D184" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185">
         <v>10000</v>
       </c>
-      <c r="C69" t="s">
-        <v>211</v>
-      </c>
-      <c r="D69" t="s">
-        <v>212</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="B185" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D185" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>177</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>178</v>
-      </c>
-      <c r="D70" t="s">
-        <v>179</v>
-      </c>
-      <c r="E70" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>177</v>
-      </c>
-      <c r="B71">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>187</v>
-      </c>
-      <c r="D71" t="s">
-        <v>188</v>
-      </c>
-      <c r="E71" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>177</v>
-      </c>
-      <c r="B72">
-        <v>100</v>
-      </c>
-      <c r="C72" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" t="s">
-        <v>197</v>
-      </c>
-      <c r="E72" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>177</v>
-      </c>
-      <c r="B73">
-        <v>1000</v>
-      </c>
-      <c r="C73" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" t="s">
-        <v>206</v>
-      </c>
-      <c r="E73" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>177</v>
-      </c>
-      <c r="B74">
-        <v>10000</v>
-      </c>
-      <c r="C74" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>217</v>
-      </c>
-      <c r="C76" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>218</v>
-      </c>
-      <c r="D77" t="s">
-        <v>219</v>
-      </c>
-      <c r="E77" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>90</v>
-      </c>
-      <c r="B78">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>221</v>
-      </c>
-      <c r="D78" t="s">
-        <v>222</v>
-      </c>
-      <c r="E78" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79">
-        <v>100</v>
-      </c>
-      <c r="C79" t="s">
-        <v>224</v>
-      </c>
-      <c r="D79" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80">
-        <v>1000</v>
-      </c>
-      <c r="C80" t="s">
-        <v>227</v>
-      </c>
-      <c r="D80" t="s">
-        <v>228</v>
-      </c>
-      <c r="E80" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81">
-        <v>10000</v>
-      </c>
-      <c r="C81" t="s">
-        <v>230</v>
-      </c>
-      <c r="D81" t="s">
-        <v>231</v>
-      </c>
-      <c r="E81" t="s">
-        <v>232</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:E74">
-    <sortCondition ref="A60:A74" customList="GetArticles,GetReducedArticles,GetArticlesWithPriceChatty,GetArticlesWithPriceBulky"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H68:L82">
+    <sortCondition ref="H68:H82" customList="GetArticles,GetReducedArticles,GetArticlesWithPriceChatty,GetArticlesWithPriceBulky"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
+++ b/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\8. Semester\Bachelorarbeit\TestaufbauGit\Testaufbau\Testaufbau\BenchmarkResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4FDBA-621B-45D8-99E3-862CAB7C9906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E3F3B-407D-4426-AAF8-A35D2B88208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="491">
   <si>
     <t>Method</t>
   </si>
@@ -346,9 +346,6 @@
     <t>TotalTime: 26:29</t>
   </si>
   <si>
-    <t>Mit ToListAsync() bei OrdersWithOrderItems</t>
-  </si>
-  <si>
     <t>1.724 ms</t>
   </si>
   <si>
@@ -1067,6 +1064,435 @@
   </si>
   <si>
     <t>0.0408 ms</t>
+  </si>
+  <si>
+    <t>1.505 ms</t>
+  </si>
+  <si>
+    <t>0.0265 ms</t>
+  </si>
+  <si>
+    <t>0.0248 ms</t>
+  </si>
+  <si>
+    <t>3.372 ms</t>
+  </si>
+  <si>
+    <t>0.0640 ms</t>
+  </si>
+  <si>
+    <t>0.0711 ms</t>
+  </si>
+  <si>
+    <t>2.981 ms</t>
+  </si>
+  <si>
+    <t>0.0417 ms</t>
+  </si>
+  <si>
+    <t>6.615 ms</t>
+  </si>
+  <si>
+    <t>0.0915 ms</t>
+  </si>
+  <si>
+    <t>0.0855 ms</t>
+  </si>
+  <si>
+    <t>1.595 ms</t>
+  </si>
+  <si>
+    <t>0.0220 ms</t>
+  </si>
+  <si>
+    <t>0.0206 ms</t>
+  </si>
+  <si>
+    <t>3.417 ms</t>
+  </si>
+  <si>
+    <t>0.0484 ms</t>
+  </si>
+  <si>
+    <t>0.0452 ms</t>
+  </si>
+  <si>
+    <t>16.123 ms</t>
+  </si>
+  <si>
+    <t>0.1576 ms</t>
+  </si>
+  <si>
+    <t>0.1397 ms</t>
+  </si>
+  <si>
+    <t>9.251 ms</t>
+  </si>
+  <si>
+    <t>0.0599 ms</t>
+  </si>
+  <si>
+    <t>0.0468 ms</t>
+  </si>
+  <si>
+    <t>2.454 ms</t>
+  </si>
+  <si>
+    <t>0.0346 ms</t>
+  </si>
+  <si>
+    <t>3.711 ms</t>
+  </si>
+  <si>
+    <t>0.0566 ms</t>
+  </si>
+  <si>
+    <t>148.898 ms</t>
+  </si>
+  <si>
+    <t>1.9744 ms</t>
+  </si>
+  <si>
+    <t>1.6487 ms</t>
+  </si>
+  <si>
+    <t>10.710 ms</t>
+  </si>
+  <si>
+    <t>0.0832 ms</t>
+  </si>
+  <si>
+    <t>0.0778 ms</t>
+  </si>
+  <si>
+    <t>10.512 ms</t>
+  </si>
+  <si>
+    <t>0.1355 ms</t>
+  </si>
+  <si>
+    <t>0.1267 ms</t>
+  </si>
+  <si>
+    <t>7.095 ms</t>
+  </si>
+  <si>
+    <t>0.0580 ms</t>
+  </si>
+  <si>
+    <t>0.0514 ms</t>
+  </si>
+  <si>
+    <t>1,477.025 ms</t>
+  </si>
+  <si>
+    <t>18.8016 ms</t>
+  </si>
+  <si>
+    <t>17.5870 ms</t>
+  </si>
+  <si>
+    <t>22.253 ms</t>
+  </si>
+  <si>
+    <t>0.2110 ms</t>
+  </si>
+  <si>
+    <t>0.1762 ms</t>
+  </si>
+  <si>
+    <t>87.730 ms</t>
+  </si>
+  <si>
+    <t>1.1615 ms</t>
+  </si>
+  <si>
+    <t>1.0296 ms</t>
+  </si>
+  <si>
+    <t>34.618 ms</t>
+  </si>
+  <si>
+    <t>0.1725 ms</t>
+  </si>
+  <si>
+    <t>0.1441 ms</t>
+  </si>
+  <si>
+    <t>14,999.907 ms</t>
+  </si>
+  <si>
+    <t>94.9948 ms</t>
+  </si>
+  <si>
+    <t>84.2104 ms</t>
+  </si>
+  <si>
+    <t>166.533 ms</t>
+  </si>
+  <si>
+    <t>3.2755 ms</t>
+  </si>
+  <si>
+    <t>3.5047 ms</t>
+  </si>
+  <si>
+    <t>4.214 ms</t>
+  </si>
+  <si>
+    <t>0.0423 ms</t>
+  </si>
+  <si>
+    <t>0.0353 ms</t>
+  </si>
+  <si>
+    <t>54.557 ms</t>
+  </si>
+  <si>
+    <t>0.4328 ms</t>
+  </si>
+  <si>
+    <t>0.3614 ms</t>
+  </si>
+  <si>
+    <t>465.059 ms</t>
+  </si>
+  <si>
+    <t>3.8557 ms</t>
+  </si>
+  <si>
+    <t>3.0103 ms</t>
+  </si>
+  <si>
+    <t>4,813.997 ms</t>
+  </si>
+  <si>
+    <t>17.5368 ms</t>
+  </si>
+  <si>
+    <t>16.4039 ms</t>
+  </si>
+  <si>
+    <t>79,859.155 ms</t>
+  </si>
+  <si>
+    <t>218.3229 ms</t>
+  </si>
+  <si>
+    <t>204.2194 ms</t>
+  </si>
+  <si>
+    <t>1.531 ms</t>
+  </si>
+  <si>
+    <t>0.0210 ms</t>
+  </si>
+  <si>
+    <t>0.0175 ms</t>
+  </si>
+  <si>
+    <t>3.380 ms</t>
+  </si>
+  <si>
+    <t>0.0578 ms</t>
+  </si>
+  <si>
+    <t>0.0513 ms</t>
+  </si>
+  <si>
+    <t>3.052 ms</t>
+  </si>
+  <si>
+    <t>0.0532 ms</t>
+  </si>
+  <si>
+    <t>6.721 ms</t>
+  </si>
+  <si>
+    <t>0.1193 ms</t>
+  </si>
+  <si>
+    <t>0.1116 ms</t>
+  </si>
+  <si>
+    <t>1.602 ms</t>
+  </si>
+  <si>
+    <t>0.0174 ms</t>
+  </si>
+  <si>
+    <t>3.420 ms</t>
+  </si>
+  <si>
+    <t>0.0546 ms</t>
+  </si>
+  <si>
+    <t>0.0511 ms</t>
+  </si>
+  <si>
+    <t>16.754 ms</t>
+  </si>
+  <si>
+    <t>0.1029 ms</t>
+  </si>
+  <si>
+    <t>0.0859 ms</t>
+  </si>
+  <si>
+    <t>9.267 ms</t>
+  </si>
+  <si>
+    <t>0.1080 ms</t>
+  </si>
+  <si>
+    <t>0.1010 ms</t>
+  </si>
+  <si>
+    <t>0.0445 ms</t>
+  </si>
+  <si>
+    <t>3.556 ms</t>
+  </si>
+  <si>
+    <t>0.0554 ms</t>
+  </si>
+  <si>
+    <t>155.453 ms</t>
+  </si>
+  <si>
+    <t>3.0543 ms</t>
+  </si>
+  <si>
+    <t>2.9998 ms</t>
+  </si>
+  <si>
+    <t>10.326 ms</t>
+  </si>
+  <si>
+    <t>0.0948 ms</t>
+  </si>
+  <si>
+    <t>0.0887 ms</t>
+  </si>
+  <si>
+    <t>8.420 ms</t>
+  </si>
+  <si>
+    <t>0.1665 ms</t>
+  </si>
+  <si>
+    <t>0.3439 ms</t>
+  </si>
+  <si>
+    <t>4.799 ms</t>
+  </si>
+  <si>
+    <t>0.0912 ms</t>
+  </si>
+  <si>
+    <t>0.0853 ms</t>
+  </si>
+  <si>
+    <t>1,542.741 ms</t>
+  </si>
+  <si>
+    <t>24.6900 ms</t>
+  </si>
+  <si>
+    <t>21.8870 ms</t>
+  </si>
+  <si>
+    <t>20.262 ms</t>
+  </si>
+  <si>
+    <t>0.3755 ms</t>
+  </si>
+  <si>
+    <t>0.5504 ms</t>
+  </si>
+  <si>
+    <t>65.855 ms</t>
+  </si>
+  <si>
+    <t>1.2108 ms</t>
+  </si>
+  <si>
+    <t>1.4414 ms</t>
+  </si>
+  <si>
+    <t>14.807 ms</t>
+  </si>
+  <si>
+    <t>0.2894 ms</t>
+  </si>
+  <si>
+    <t>0.4057 ms</t>
+  </si>
+  <si>
+    <t>15,436.894 ms</t>
+  </si>
+  <si>
+    <t>50.9709 ms</t>
+  </si>
+  <si>
+    <t>42.5630 ms</t>
+  </si>
+  <si>
+    <t>140.654 ms</t>
+  </si>
+  <si>
+    <t>2.7111 ms</t>
+  </si>
+  <si>
+    <t>3.7110 ms</t>
+  </si>
+  <si>
+    <t>4.498 ms</t>
+  </si>
+  <si>
+    <t>0.0672 ms</t>
+  </si>
+  <si>
+    <t>0.0561 ms</t>
+  </si>
+  <si>
+    <t>57.364 ms</t>
+  </si>
+  <si>
+    <t>0.4314 ms</t>
+  </si>
+  <si>
+    <t>0.3368 ms</t>
+  </si>
+  <si>
+    <t>490.691 ms</t>
+  </si>
+  <si>
+    <t>3.7763 ms</t>
+  </si>
+  <si>
+    <t>3.1534 ms</t>
+  </si>
+  <si>
+    <t>5,076.201 ms</t>
+  </si>
+  <si>
+    <t>18.1880 ms</t>
+  </si>
+  <si>
+    <t>17.0130 ms</t>
+  </si>
+  <si>
+    <t>84,442.999 ms</t>
+  </si>
+  <si>
+    <t>213.4445 ms</t>
+  </si>
+  <si>
+    <t>199.6561 ms</t>
+  </si>
+  <si>
+    <t>Verbesserung hier auf Grund von "Chatty" Verarbeitung der Article- und Price-Abfragen (Parallel/Async)</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1502,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000000000000000000000000E+00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1207,6 +1633,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1405,7 +1837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1535,6 +1967,404 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1580,11 +2410,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1592,7 +2419,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1611,6 +2437,120 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1968,2341 +2908,3837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:L185"/>
+  <dimension ref="A1:T185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="11.26953125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.7265625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="14.6328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="28" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="15.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.26953125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="10.90625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="15.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.26953125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="10.90625" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="43"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="Q4" s="46"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="Q5" s="46"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="47" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="Q6" s="46"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
         <v>100</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="I7" s="4">
+        <v>100</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="Q7" s="46"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
         <v>1000</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="47" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="I8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="Q8" s="46"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
         <v>10000</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="47" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="Q9" s="46"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="47" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="Q10" s="46"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="47" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="I11" s="4">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="Q11" s="46"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
         <v>100</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="I12" s="4">
+        <v>100</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="Q12" s="46"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
         <v>1000</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="47" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
+      <c r="I13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="Q13" s="46"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
         <v>10000</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="Q14" s="46"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6">
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="Q15" s="46"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="47" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="Q16" s="46"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
         <v>100</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="47" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="I17" s="4">
+        <v>100</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="Q17" s="46"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
         <v>1000</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="47" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6">
+      <c r="I18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="Q18" s="46"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
         <v>10000</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="47" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="Q19" s="46"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="47" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6">
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="Q20" s="46"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
         <v>10</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="47" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="I21" s="4">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="Q21" s="46"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
         <v>100</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="47" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6">
+      <c r="I22" s="4">
+        <v>100</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="Q22" s="46"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
         <v>1000</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="47" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
+      <c r="I23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="Q23" s="46"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4">
         <v>10000</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="35" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="H24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="Q24" s="46"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="44"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="Q25" s="46"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="Q26" s="46"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="Q27" s="46"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="4">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="4">
+        <v>10</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="Q28" s="46"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="4">
+        <v>100</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="4">
+        <v>100</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="Q29" s="46"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="Q30" s="46"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="49">
+        <v>10000</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="49">
+        <v>10000</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="K31" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="L31" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="54"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="78"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="24"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R35" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="D36" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="4">
+        <v>10</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="4">
+        <v>10</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="4">
+        <v>100</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="4">
+        <v>100</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" s="4">
+        <v>10000</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4">
+        <v>10</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="4">
+        <v>10</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P42" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="4">
+        <v>100</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="4">
+        <v>100</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P45" s="4">
+        <v>10000</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="4">
+        <v>10</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="4">
+        <v>10</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="4">
+        <v>100</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="4">
+        <v>100</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A49" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50" s="4">
+        <v>10000</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="4">
+        <v>10</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="4">
+        <v>10</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A53" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="4">
+        <v>100</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="4">
+        <v>100</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q53" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A54" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q54" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A55" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="Q55" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A56" s="25"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="35"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="Q56" s="26"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A57" s="25"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="35"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="Q57" s="26"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A58" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q58" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R58" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A59" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="6">
+      <c r="D59" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="J59" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="6">
+      <c r="P59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A60" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I60" s="4">
         <v>10</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="J60" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="6">
+      <c r="P60" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A61" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I61" s="4">
         <v>100</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="J61" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="6">
+      <c r="P61" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A62" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I62" s="4">
         <v>1000</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="J62" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P62" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q62" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="31"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" s="29">
+        <v>10000</v>
+      </c>
+      <c r="J63" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="K63" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="L63" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P63" s="29">
+        <v>10000</v>
+      </c>
+      <c r="Q63" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="73"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="76"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="76"/>
+      <c r="O64" s="76"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="78"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="76"/>
+      <c r="O65" s="76"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="78"/>
+    </row>
+    <row r="66" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="56"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="62"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="16"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="Q67" s="64"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="Q68" s="64"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="4">
+        <v>10</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" s="16"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" s="4">
+        <v>10</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="Q69" s="64"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="4">
         <v>100</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="C70" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F70" s="16"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" s="4">
+        <v>100</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="Q70" s="64"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="Q71" s="64"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="16"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="Q72" s="64"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A73" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F73" s="16"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="Q73" s="64"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A74" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="4">
+        <v>10</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="16"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="4">
+        <v>10</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="Q74" s="64"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="4">
+        <v>100</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F75" s="16"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="4">
+        <v>100</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="Q75" s="64"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A76" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="Q76" s="64"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F77" s="16"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="Q77" s="64"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A78" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L78" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="Q78" s="64"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A79" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="4">
+        <v>10</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F79" s="16"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I79" s="4">
+        <v>10</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="Q79" s="64"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A80" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="4">
+        <v>100</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I80" s="4">
+        <v>100</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="Q80" s="64"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A81" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" s="16"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="Q81" s="64"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A82" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I82" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="Q82" s="64"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83" s="63"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="35"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="Q83" s="64"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A84" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="16"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="35"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="Q84" s="64"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A85" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B85" s="4">
+        <v>1</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F85" s="16"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="35"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="Q85" s="64"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="4">
+        <v>10</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="35"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="Q86" s="64"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A87" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="4">
+        <v>100</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F87" s="16"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="35"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="Q87" s="64"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A88" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F88" s="16"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="35"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="Q88" s="64"/>
+    </row>
+    <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="66">
         <v>10000</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="6">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="6">
-        <v>10</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37">
-        <v>10</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="6">
-        <v>100</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38">
-        <v>100</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H39" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39">
-        <v>1000</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H40" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40">
-        <v>10000</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="6">
-        <v>1</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="6">
-        <v>10</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42">
-        <v>10</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="6">
-        <v>100</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43">
-        <v>100</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44">
-        <v>1000</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H45" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45">
-        <v>10000</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="6">
-        <v>10</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47">
-        <v>10</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="6">
-        <v>100</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H48" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48">
-        <v>100</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49">
-        <v>1000</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H50" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50">
-        <v>10000</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="6">
-        <v>1</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H51" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="6">
-        <v>10</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52">
-        <v>10</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="6">
-        <v>100</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H53" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53">
-        <v>100</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H54" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54">
-        <v>1000</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G55" s="5"/>
-      <c r="H55" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55">
-        <v>10000</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="6">
-        <v>1</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="6">
-        <v>10</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="6">
-        <v>100</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>4</v>
-      </c>
-      <c r="H67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I67" t="s">
-        <v>1</v>
-      </c>
-      <c r="J67" t="s">
-        <v>2</v>
-      </c>
-      <c r="K67" t="s">
-        <v>3</v>
-      </c>
-      <c r="L67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="6">
-        <v>1</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H68" t="s">
-        <v>6</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="6">
-        <v>10</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H69" t="s">
-        <v>6</v>
-      </c>
-      <c r="I69">
-        <v>10</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="6">
-        <v>100</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H70" t="s">
-        <v>6</v>
-      </c>
-      <c r="I70">
-        <v>100</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H71" t="s">
-        <v>6</v>
-      </c>
-      <c r="I71">
-        <v>1000</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H72" t="s">
-        <v>6</v>
-      </c>
-      <c r="I72">
-        <v>10000</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="6">
-        <v>1</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="6">
-        <v>10</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H74" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74">
-        <v>10</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="6">
-        <v>100</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H75" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75">
-        <v>100</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H76" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76">
-        <v>1000</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77">
-        <v>10000</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>176</v>
-      </c>
-      <c r="B78" s="6">
-        <v>1</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H78" t="s">
-        <v>176</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="6">
-        <v>10</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H79" t="s">
-        <v>176</v>
-      </c>
-      <c r="I79">
-        <v>10</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>176</v>
-      </c>
-      <c r="B80" s="6">
-        <v>100</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H80" t="s">
-        <v>176</v>
-      </c>
-      <c r="I80">
-        <v>100</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>176</v>
-      </c>
-      <c r="B81" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H81" t="s">
-        <v>176</v>
-      </c>
-      <c r="I81">
-        <v>1000</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H82" t="s">
-        <v>176</v>
-      </c>
-      <c r="I82">
-        <v>10000</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="6">
-        <v>1</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="6">
-        <v>10</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="6">
-        <v>100</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="C89" s="67" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C89" s="7" t="s">
+      <c r="D89" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="F89" s="68"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="71"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
+      <c r="N89" s="69"/>
+      <c r="O89" s="69"/>
+      <c r="P89" s="66"/>
+      <c r="Q89" s="72"/>
+    </row>
+    <row r="90" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="14"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="14"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>6</v>
       </c>
-      <c r="C155" s="11"/>
+      <c r="C155" s="9"/>
       <c r="D155"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C156" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C156" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="D156" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>109</v>
+      <c r="C157" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="D157" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>10</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B158" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C158" s="7" t="s">
-        <v>121</v>
+      <c r="C158" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D158" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>100</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>133</v>
+      <c r="C159" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D159" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1000</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>145</v>
+      <c r="C160" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="D160" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>10000</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B161" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>157</v>
+      <c r="C161" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C162" s="11"/>
+      <c r="C162" s="9"/>
       <c r="D162"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>11</v>
       </c>
-      <c r="C163" s="11"/>
+      <c r="C163" s="9"/>
       <c r="D163"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C164" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C164" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="D164" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1</v>
       </c>
-      <c r="B165" s="12" t="s">
+      <c r="B165" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>112</v>
+      <c r="C165" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="D165" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>10</v>
       </c>
-      <c r="B166" s="12" t="s">
+      <c r="B166" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>124</v>
+      <c r="C166" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D166" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>100</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C167" s="7" t="s">
-        <v>136</v>
+      <c r="C167" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="D167" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1000</v>
       </c>
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C168" s="7" t="s">
-        <v>148</v>
+      <c r="C168" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="D168" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>10000</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C169" s="7" t="s">
-        <v>160</v>
+      <c r="C169" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D169" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B170" s="13"/>
-      <c r="C170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="9"/>
       <c r="D170"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="11"/>
+      <c r="C171" s="9"/>
       <c r="D171"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C172" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C172" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="D172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>115</v>
+      <c r="C173" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="D173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>10</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>127</v>
+      <c r="C174" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D174" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>100</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>139</v>
+      <c r="C175" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="D175" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1000</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C176" s="7" t="s">
-        <v>151</v>
+      <c r="C176" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D176" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>10000</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>163</v>
+      <c r="C177" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="D177" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C178" s="11"/>
+      <c r="C178" s="9"/>
       <c r="D178"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>21</v>
       </c>
-      <c r="C179" s="11"/>
+      <c r="C179" s="9"/>
       <c r="D179"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C180" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C180" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="D180" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C181" s="7" t="s">
-        <v>118</v>
+      <c r="C181" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="D181" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>10</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>130</v>
+      <c r="C182" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="D182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>100</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B183" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>142</v>
+      <c r="C183" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="D183" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1000</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B184" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>154</v>
+      <c r="C184" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D184" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>10000</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>166</v>
+      <c r="C185" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="D185" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H68:L82">
-    <sortCondition ref="H68:H82" customList="GetArticles,GetReducedArticles,GetArticlesWithPriceChatty,GetArticlesWithPriceBulky"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H5:J24">
+    <sortCondition ref="H5:H24" customList="GetArticles,GetReducedArticles,GetArticlesWithPriceChatty,GetArticlesWithPriceBulky"/>
   </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
+++ b/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\8. Semester\Bachelorarbeit\TestaufbauGit\Testaufbau\Testaufbau\BenchmarkResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E3F3B-407D-4426-AAF8-A35D2B88208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3916900A-A3EA-4C8B-8364-49B5B8F05E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BenchmarkResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="617">
   <si>
     <t>Method</t>
   </si>
@@ -1493,6 +1493,384 @@
   </si>
   <si>
     <t>Verbesserung hier auf Grund von "Chatty" Verarbeitung der Article- und Price-Abfragen (Parallel/Async)</t>
+  </si>
+  <si>
+    <t>1.047 ms</t>
+  </si>
+  <si>
+    <t>0.0118 ms</t>
+  </si>
+  <si>
+    <t>1.005 ms</t>
+  </si>
+  <si>
+    <t>0.0083 ms</t>
+  </si>
+  <si>
+    <t>0.0070 ms</t>
+  </si>
+  <si>
+    <t>1.852 ms</t>
+  </si>
+  <si>
+    <t>0.0315 ms</t>
+  </si>
+  <si>
+    <t>0.0280 ms</t>
+  </si>
+  <si>
+    <t>1.154 ms</t>
+  </si>
+  <si>
+    <t>0.0150 ms</t>
+  </si>
+  <si>
+    <t>0.0125 ms</t>
+  </si>
+  <si>
+    <t>1.073 ms</t>
+  </si>
+  <si>
+    <t>0.0062 ms</t>
+  </si>
+  <si>
+    <t>9.042 ms</t>
+  </si>
+  <si>
+    <t>0.0440 ms</t>
+  </si>
+  <si>
+    <t>0.0343 ms</t>
+  </si>
+  <si>
+    <t>2.133 ms</t>
+  </si>
+  <si>
+    <t>0.0164 ms</t>
+  </si>
+  <si>
+    <t>1.527 ms</t>
+  </si>
+  <si>
+    <t>0.0284 ms</t>
+  </si>
+  <si>
+    <t>0.0266 ms</t>
+  </si>
+  <si>
+    <t>80.180 ms</t>
+  </si>
+  <si>
+    <t>0.6761 ms</t>
+  </si>
+  <si>
+    <t>0.5646 ms</t>
+  </si>
+  <si>
+    <t>11.245 ms</t>
+  </si>
+  <si>
+    <t>0.1319 ms</t>
+  </si>
+  <si>
+    <t>0.1169 ms</t>
+  </si>
+  <si>
+    <t>6.207 ms</t>
+  </si>
+  <si>
+    <t>0.1071 ms</t>
+  </si>
+  <si>
+    <t>0.0950 ms</t>
+  </si>
+  <si>
+    <t>792.642 ms</t>
+  </si>
+  <si>
+    <t>9.9559 ms</t>
+  </si>
+  <si>
+    <t>9.3127 ms</t>
+  </si>
+  <si>
+    <t>99.281 ms</t>
+  </si>
+  <si>
+    <t>1.4888 ms</t>
+  </si>
+  <si>
+    <t>1.3926 ms</t>
+  </si>
+  <si>
+    <t>52.172 ms</t>
+  </si>
+  <si>
+    <t>0.8842 ms</t>
+  </si>
+  <si>
+    <t>0.8271 ms</t>
+  </si>
+  <si>
+    <t>8,430.205 ms</t>
+  </si>
+  <si>
+    <t>72.4358 ms</t>
+  </si>
+  <si>
+    <t>67.7565 ms</t>
+  </si>
+  <si>
+    <t>3.071 ms</t>
+  </si>
+  <si>
+    <t>0.0323 ms</t>
+  </si>
+  <si>
+    <t>0.0252 ms</t>
+  </si>
+  <si>
+    <t>35.698 ms</t>
+  </si>
+  <si>
+    <t>0.6723 ms</t>
+  </si>
+  <si>
+    <t>0.6289 ms</t>
+  </si>
+  <si>
+    <t>300.028 ms</t>
+  </si>
+  <si>
+    <t>5.1655 ms</t>
+  </si>
+  <si>
+    <t>4.5791 ms</t>
+  </si>
+  <si>
+    <t>3,225.967 ms</t>
+  </si>
+  <si>
+    <t>21.2419 ms</t>
+  </si>
+  <si>
+    <t>19.8697 ms</t>
+  </si>
+  <si>
+    <t>65,400.840 ms</t>
+  </si>
+  <si>
+    <t>82.1079 ms</t>
+  </si>
+  <si>
+    <t>76.8038 ms</t>
+  </si>
+  <si>
+    <t>1.548 ms</t>
+  </si>
+  <si>
+    <t>0.0269 ms</t>
+  </si>
+  <si>
+    <t>3.457 ms</t>
+  </si>
+  <si>
+    <t>0.0937 ms</t>
+  </si>
+  <si>
+    <t>3.091 ms</t>
+  </si>
+  <si>
+    <t>0.0553 ms</t>
+  </si>
+  <si>
+    <t>0.0518 ms</t>
+  </si>
+  <si>
+    <t>6.643 ms</t>
+  </si>
+  <si>
+    <t>1.618 ms</t>
+  </si>
+  <si>
+    <t>0.0247 ms</t>
+  </si>
+  <si>
+    <t>0.0231 ms</t>
+  </si>
+  <si>
+    <t>3.466 ms</t>
+  </si>
+  <si>
+    <t>0.0660 ms</t>
+  </si>
+  <si>
+    <t>0.0649 ms</t>
+  </si>
+  <si>
+    <t>16.798 ms</t>
+  </si>
+  <si>
+    <t>0.0995 ms</t>
+  </si>
+  <si>
+    <t>0.0777 ms</t>
+  </si>
+  <si>
+    <t>9.400 ms</t>
+  </si>
+  <si>
+    <t>0.0939 ms</t>
+  </si>
+  <si>
+    <t>0.0879 ms</t>
+  </si>
+  <si>
+    <t>2.255 ms</t>
+  </si>
+  <si>
+    <t>3.590 ms</t>
+  </si>
+  <si>
+    <t>0.0523 ms</t>
+  </si>
+  <si>
+    <t>0.0489 ms</t>
+  </si>
+  <si>
+    <t>155.005 ms</t>
+  </si>
+  <si>
+    <t>2.9390 ms</t>
+  </si>
+  <si>
+    <t>3.0181 ms</t>
+  </si>
+  <si>
+    <t>10.437 ms</t>
+  </si>
+  <si>
+    <t>0.1296 ms</t>
+  </si>
+  <si>
+    <t>0.1149 ms</t>
+  </si>
+  <si>
+    <t>8.627 ms</t>
+  </si>
+  <si>
+    <t>0.1723 ms</t>
+  </si>
+  <si>
+    <t>0.4027 ms</t>
+  </si>
+  <si>
+    <t>4.839 ms</t>
+  </si>
+  <si>
+    <t>0.0664 ms</t>
+  </si>
+  <si>
+    <t>0.0589 ms</t>
+  </si>
+  <si>
+    <t>1,532.519 ms</t>
+  </si>
+  <si>
+    <t>18.5040 ms</t>
+  </si>
+  <si>
+    <t>17.3087 ms</t>
+  </si>
+  <si>
+    <t>20.043 ms</t>
+  </si>
+  <si>
+    <t>0.3874 ms</t>
+  </si>
+  <si>
+    <t>0.3805 ms</t>
+  </si>
+  <si>
+    <t>68.443 ms</t>
+  </si>
+  <si>
+    <t>1.3263 ms</t>
+  </si>
+  <si>
+    <t>1.8592 ms</t>
+  </si>
+  <si>
+    <t>14.960 ms</t>
+  </si>
+  <si>
+    <t>0.2948 ms</t>
+  </si>
+  <si>
+    <t>0.3027 ms</t>
+  </si>
+  <si>
+    <t>15,285.744 ms</t>
+  </si>
+  <si>
+    <t>71.9421 ms</t>
+  </si>
+  <si>
+    <t>67.2947 ms</t>
+  </si>
+  <si>
+    <t>138.457 ms</t>
+  </si>
+  <si>
+    <t>2.7534 ms</t>
+  </si>
+  <si>
+    <t>3.8599 ms</t>
+  </si>
+  <si>
+    <t>4.481 ms</t>
+  </si>
+  <si>
+    <t>0.0860 ms</t>
+  </si>
+  <si>
+    <t>0.0991 ms</t>
+  </si>
+  <si>
+    <t>56.877 ms</t>
+  </si>
+  <si>
+    <t>0.9264 ms</t>
+  </si>
+  <si>
+    <t>0.7736 ms</t>
+  </si>
+  <si>
+    <t>485.478 ms</t>
+  </si>
+  <si>
+    <t>7.8818 ms</t>
+  </si>
+  <si>
+    <t>6.9870 ms</t>
+  </si>
+  <si>
+    <t>5,063.422 ms</t>
+  </si>
+  <si>
+    <t>19.6068 ms</t>
+  </si>
+  <si>
+    <t>17.3809 ms</t>
+  </si>
+  <si>
+    <t>83,858.900 ms</t>
+  </si>
+  <si>
+    <t>170.7264 ms</t>
+  </si>
+  <si>
+    <t>151.3445 ms</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +2215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2277,42 +2655,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color theme="9" tint="-0.24994659260841701"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2345,21 +2693,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thick">
         <color theme="9" tint="-0.24994659260841701"/>
       </bottom>
@@ -2410,7 +2743,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2444,10 +2777,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2477,8 +2806,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2492,11 +2820,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -2521,36 +2846,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2908,10 +3225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T185"/>
+  <dimension ref="A1:Z185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -2932,68 +3249,50 @@
     <col min="16" max="16" width="15.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.26953125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="10.90625" collapsed="1"/>
+    <col min="20" max="22" width="10.90625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.90625" style="4" collapsed="1"/>
+    <col min="24" max="24" width="10.90625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="43"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3002,17 +3301,16 @@
       <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -3021,19 +3319,16 @@
       <c r="J4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="Q4" s="46"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4">
@@ -3042,17 +3337,16 @@
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="H5" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="4">
@@ -3061,19 +3355,16 @@
       <c r="J5" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4">
@@ -3082,17 +3373,16 @@
       <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="H6" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="4">
@@ -3101,19 +3391,16 @@
       <c r="J6" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="Q6" s="46"/>
+      <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4">
@@ -3122,17 +3409,16 @@
       <c r="C7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
+      <c r="H7" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="4">
@@ -3141,19 +3427,16 @@
       <c r="J7" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="Q7" s="46"/>
+      <c r="Q7" s="42"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4">
@@ -3162,17 +3445,16 @@
       <c r="C8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
+      <c r="H8" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="4">
@@ -3181,19 +3463,16 @@
       <c r="J8" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="Q8" s="46"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4">
@@ -3202,17 +3481,16 @@
       <c r="C9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="H9" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="4">
@@ -3221,19 +3499,16 @@
       <c r="J9" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="Q9" s="46"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4">
@@ -3242,17 +3517,16 @@
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
+      <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="4">
@@ -3261,19 +3535,16 @@
       <c r="J10" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="Q10" s="46"/>
+      <c r="Q10" s="42"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
@@ -3282,17 +3553,16 @@
       <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
+      <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="4">
@@ -3301,19 +3571,16 @@
       <c r="J11" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="Q11" s="46"/>
+      <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4">
@@ -3322,17 +3589,16 @@
       <c r="C12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
+      <c r="H12" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="4">
@@ -3341,19 +3607,16 @@
       <c r="J12" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="Q12" s="46"/>
+      <c r="Q12" s="42"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
@@ -3362,17 +3625,16 @@
       <c r="C13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
+      <c r="H13" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="4">
@@ -3381,19 +3643,16 @@
       <c r="J13" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="Q13" s="46"/>
+      <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
@@ -3402,17 +3661,16 @@
       <c r="C14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
+      <c r="H14" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="4">
@@ -3421,19 +3679,16 @@
       <c r="J14" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="Q14" s="46"/>
+      <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4">
@@ -3442,17 +3697,16 @@
       <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
+      <c r="H15" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="4">
@@ -3461,19 +3715,16 @@
       <c r="J15" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="Q15" s="46"/>
+      <c r="Q15" s="42"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4">
@@ -3482,17 +3733,16 @@
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
+      <c r="H16" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="4">
@@ -3501,19 +3751,16 @@
       <c r="J16" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="Q16" s="46"/>
+      <c r="Q16" s="42"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4">
@@ -3522,17 +3769,16 @@
       <c r="C17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
+      <c r="H17" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="4">
@@ -3541,19 +3787,16 @@
       <c r="J17" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="Q17" s="46"/>
+      <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4">
@@ -3562,17 +3805,16 @@
       <c r="C18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15" t="s">
+      <c r="H18" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="4">
@@ -3581,19 +3823,16 @@
       <c r="J18" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="Q18" s="46"/>
+      <c r="Q18" s="42"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="4">
@@ -3602,17 +3841,16 @@
       <c r="C19" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15" t="s">
+      <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="4">
@@ -3621,19 +3859,16 @@
       <c r="J19" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="Q19" s="46"/>
+      <c r="Q19" s="42"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="4">
@@ -3642,17 +3877,16 @@
       <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
+      <c r="H20" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="4">
@@ -3661,19 +3895,16 @@
       <c r="J20" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="Q20" s="46"/>
+      <c r="Q20" s="42"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4">
@@ -3682,17 +3913,16 @@
       <c r="C21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15" t="s">
+      <c r="H21" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="4">
@@ -3701,19 +3931,16 @@
       <c r="J21" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="Q21" s="46"/>
+      <c r="Q21" s="42"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="4">
@@ -3722,17 +3949,16 @@
       <c r="C22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15" t="s">
+      <c r="H22" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="4">
@@ -3741,19 +3967,16 @@
       <c r="J22" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="Q22" s="46"/>
+      <c r="Q22" s="42"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="4">
@@ -3762,17 +3985,16 @@
       <c r="C23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15" t="s">
+      <c r="H23" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="4">
@@ -3781,19 +4003,16 @@
       <c r="J23" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="Q23" s="46"/>
+      <c r="Q23" s="42"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="4">
@@ -3802,19 +4021,19 @@
       <c r="C24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="4">
@@ -3823,33 +4042,21 @@
       <c r="J24" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="Q24" s="46"/>
+      <c r="Q24" s="42"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="Q25" s="46"/>
+      <c r="A25" s="41"/>
+      <c r="G25" s="3"/>
+      <c r="Q25" s="42"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -3858,11 +4065,8 @@
       <c r="C26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="15" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" t="s">
         <v>0</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -3871,19 +4075,16 @@
       <c r="J26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="Q26" s="46"/>
+      <c r="Q26" s="42"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="41" t="s">
         <v>90</v>
       </c>
       <c r="B27" s="4">
@@ -3892,15 +4093,14 @@
       <c r="C27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" t="s">
         <v>90</v>
       </c>
       <c r="I27" s="4">
@@ -3909,19 +4109,16 @@
       <c r="J27" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="Q27" s="46"/>
+      <c r="Q27" s="42"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="41" t="s">
         <v>90</v>
       </c>
       <c r="B28" s="4">
@@ -3930,15 +4127,14 @@
       <c r="C28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="15" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" t="s">
         <v>90</v>
       </c>
       <c r="I28" s="4">
@@ -3947,19 +4143,16 @@
       <c r="J28" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="Q28" s="46"/>
+      <c r="Q28" s="42"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="41" t="s">
         <v>90</v>
       </c>
       <c r="B29" s="4">
@@ -3968,15 +4161,14 @@
       <c r="C29" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="15" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" t="s">
         <v>90</v>
       </c>
       <c r="I29" s="4">
@@ -3985,19 +4177,16 @@
       <c r="J29" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="Q29" s="46"/>
+      <c r="Q29" s="42"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="41" t="s">
         <v>90</v>
       </c>
       <c r="B30" s="4">
@@ -4006,15 +4195,14 @@
       <c r="C30" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="15" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" t="s">
         <v>90</v>
       </c>
       <c r="I30" s="4">
@@ -4023,117 +4211,94 @@
       <c r="J30" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L30" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="Q30" s="46"/>
+      <c r="Q30" s="42"/>
     </row>
     <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="45">
         <v>10000</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52" t="s">
+      <c r="F31" s="47"/>
+      <c r="G31" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="H31" s="53" t="s">
+      <c r="H31" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="45">
         <v>10000</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="K31" s="51" t="s">
+      <c r="K31" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="L31" s="51" t="s">
+      <c r="L31" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="54"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="78"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+    </row>
+    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+    </row>
+    <row r="34" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="24"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="25" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="22"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -4142,15 +4307,13 @@
       <c r="C35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15" t="s">
+      <c r="H35" t="s">
         <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -4159,21 +4322,19 @@
       <c r="J35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="15" t="s">
+      <c r="L35" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15" t="s">
+      <c r="O35" t="s">
         <v>0</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q35" s="26" t="s">
+      <c r="Q35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="R35" t="s">
@@ -4182,9 +4343,24 @@
       <c r="S35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="25" t="s">
+      <c r="V35" t="s">
+        <v>0</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="4">
@@ -4193,15 +4369,13 @@
       <c r="C36" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15" t="s">
+      <c r="H36" t="s">
         <v>6</v>
       </c>
       <c r="I36" s="4">
@@ -4210,21 +4384,19 @@
       <c r="J36" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15" t="s">
+      <c r="O36" t="s">
         <v>6</v>
       </c>
       <c r="P36" s="4">
         <v>1</v>
       </c>
-      <c r="Q36" s="27" t="s">
+      <c r="Q36" s="25" t="s">
         <v>420</v>
       </c>
       <c r="R36" s="1" t="s">
@@ -4233,9 +4405,24 @@
       <c r="S36" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="25" t="s">
+      <c r="V36" t="s">
+        <v>6</v>
+      </c>
+      <c r="W36" s="4">
+        <v>1</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="4">
@@ -4244,15 +4431,13 @@
       <c r="C37" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15" t="s">
+      <c r="H37" t="s">
         <v>6</v>
       </c>
       <c r="I37" s="4">
@@ -4261,21 +4446,19 @@
       <c r="J37" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L37" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15" t="s">
+      <c r="O37" t="s">
         <v>6</v>
       </c>
       <c r="P37" s="4">
         <v>10</v>
       </c>
-      <c r="Q37" s="27" t="s">
+      <c r="Q37" s="25" t="s">
         <v>431</v>
       </c>
       <c r="R37" s="1" t="s">
@@ -4284,9 +4467,24 @@
       <c r="S37" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="25" t="s">
+      <c r="V37" t="s">
+        <v>6</v>
+      </c>
+      <c r="W37" s="4">
+        <v>10</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="4">
@@ -4295,15 +4493,13 @@
       <c r="C38" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15" t="s">
+      <c r="H38" t="s">
         <v>6</v>
       </c>
       <c r="I38" s="4">
@@ -4312,21 +4508,19 @@
       <c r="J38" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L38" s="16" t="s">
+      <c r="L38" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15" t="s">
+      <c r="O38" t="s">
         <v>6</v>
       </c>
       <c r="P38" s="4">
         <v>100</v>
       </c>
-      <c r="Q38" s="27" t="s">
+      <c r="Q38" s="25" t="s">
         <v>339</v>
       </c>
       <c r="R38" s="1" t="s">
@@ -4335,9 +4529,24 @@
       <c r="S38" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="25" t="s">
+      <c r="V38" t="s">
+        <v>6</v>
+      </c>
+      <c r="W38" s="4">
+        <v>100</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="4">
@@ -4346,15 +4555,13 @@
       <c r="C39" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15" t="s">
+      <c r="H39" t="s">
         <v>6</v>
       </c>
       <c r="I39" s="4">
@@ -4363,21 +4570,19 @@
       <c r="J39" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="L39" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15" t="s">
+      <c r="O39" t="s">
         <v>6</v>
       </c>
       <c r="P39" s="4">
         <v>1000</v>
       </c>
-      <c r="Q39" s="27" t="s">
+      <c r="Q39" s="25" t="s">
         <v>451</v>
       </c>
       <c r="R39" s="1" t="s">
@@ -4386,9 +4591,24 @@
       <c r="S39" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="25" t="s">
+      <c r="V39" t="s">
+        <v>6</v>
+      </c>
+      <c r="W39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A40" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="4">
@@ -4397,15 +4617,13 @@
       <c r="C40" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15" t="s">
+      <c r="H40" t="s">
         <v>6</v>
       </c>
       <c r="I40" s="4">
@@ -4414,21 +4632,19 @@
       <c r="J40" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="L40" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15" t="s">
+      <c r="O40" t="s">
         <v>6</v>
       </c>
       <c r="P40" s="4">
         <v>10000</v>
       </c>
-      <c r="Q40" s="27" t="s">
+      <c r="Q40" s="25" t="s">
         <v>463</v>
       </c>
       <c r="R40" s="1" t="s">
@@ -4437,9 +4653,24 @@
       <c r="S40" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="25" t="s">
+      <c r="V40" t="s">
+        <v>6</v>
+      </c>
+      <c r="W40" s="4">
+        <v>10000</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A41" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="4">
@@ -4448,15 +4679,13 @@
       <c r="C41" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15" t="s">
+      <c r="H41" t="s">
         <v>11</v>
       </c>
       <c r="I41" s="4">
@@ -4465,21 +4694,19 @@
       <c r="J41" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="L41" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15" t="s">
+      <c r="O41" t="s">
         <v>11</v>
       </c>
       <c r="P41" s="4">
         <v>1</v>
       </c>
-      <c r="Q41" s="27" t="s">
+      <c r="Q41" s="25" t="s">
         <v>423</v>
       </c>
       <c r="R41" s="1" t="s">
@@ -4488,9 +4715,24 @@
       <c r="S41" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="25" t="s">
+      <c r="V41" t="s">
+        <v>11</v>
+      </c>
+      <c r="W41" s="4">
+        <v>1</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="4">
@@ -4499,15 +4741,13 @@
       <c r="C42" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15" t="s">
+      <c r="H42" t="s">
         <v>11</v>
       </c>
       <c r="I42" s="4">
@@ -4516,21 +4756,19 @@
       <c r="J42" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L42" s="16" t="s">
+      <c r="L42" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15" t="s">
+      <c r="O42" t="s">
         <v>11</v>
       </c>
       <c r="P42" s="4">
         <v>10</v>
       </c>
-      <c r="Q42" s="27" t="s">
+      <c r="Q42" s="25" t="s">
         <v>433</v>
       </c>
       <c r="R42" s="1" t="s">
@@ -4539,9 +4777,24 @@
       <c r="S42" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="25" t="s">
+      <c r="V42" t="s">
+        <v>11</v>
+      </c>
+      <c r="W42" s="4">
+        <v>10</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A43" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="4">
@@ -4550,15 +4803,13 @@
       <c r="C43" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15" t="s">
+      <c r="H43" t="s">
         <v>11</v>
       </c>
       <c r="I43" s="4">
@@ -4567,21 +4818,19 @@
       <c r="J43" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K43" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L43" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15" t="s">
+      <c r="O43" t="s">
         <v>11</v>
       </c>
       <c r="P43" s="4">
         <v>100</v>
       </c>
-      <c r="Q43" s="27" t="s">
+      <c r="Q43" s="25" t="s">
         <v>443</v>
       </c>
       <c r="R43" s="1" t="s">
@@ -4590,9 +4839,24 @@
       <c r="S43" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="25" t="s">
+      <c r="V43" t="s">
+        <v>11</v>
+      </c>
+      <c r="W43" s="4">
+        <v>100</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A44" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="4">
@@ -4601,15 +4865,13 @@
       <c r="C44" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15" t="s">
+      <c r="H44" t="s">
         <v>11</v>
       </c>
       <c r="I44" s="4">
@@ -4618,21 +4880,19 @@
       <c r="J44" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="L44" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15" t="s">
+      <c r="O44" t="s">
         <v>11</v>
       </c>
       <c r="P44" s="4">
         <v>1000</v>
       </c>
-      <c r="Q44" s="27" t="s">
+      <c r="Q44" s="25" t="s">
         <v>454</v>
       </c>
       <c r="R44" s="1" t="s">
@@ -4641,9 +4901,24 @@
       <c r="S44" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="25" t="s">
+      <c r="V44" t="s">
+        <v>11</v>
+      </c>
+      <c r="W44" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="4">
@@ -4652,15 +4927,13 @@
       <c r="C45" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15" t="s">
+      <c r="H45" t="s">
         <v>11</v>
       </c>
       <c r="I45" s="4">
@@ -4669,21 +4942,19 @@
       <c r="J45" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15" t="s">
+      <c r="O45" t="s">
         <v>11</v>
       </c>
       <c r="P45" s="4">
         <v>10000</v>
       </c>
-      <c r="Q45" s="27" t="s">
+      <c r="Q45" s="25" t="s">
         <v>466</v>
       </c>
       <c r="R45" s="1" t="s">
@@ -4692,9 +4963,24 @@
       <c r="S45" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="25" t="s">
+      <c r="V45" t="s">
+        <v>11</v>
+      </c>
+      <c r="W45" s="4">
+        <v>10000</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A46" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="4">
@@ -4703,15 +4989,13 @@
       <c r="C46" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15" t="s">
+      <c r="H46" t="s">
         <v>16</v>
       </c>
       <c r="I46" s="4">
@@ -4720,21 +5004,19 @@
       <c r="J46" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L46" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15" t="s">
+      <c r="O46" t="s">
         <v>16</v>
       </c>
       <c r="P46" s="4">
         <v>1</v>
       </c>
-      <c r="Q46" s="27" t="s">
+      <c r="Q46" s="25" t="s">
         <v>426</v>
       </c>
       <c r="R46" s="1" t="s">
@@ -4743,9 +5025,24 @@
       <c r="S46" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="25" t="s">
+      <c r="V46" t="s">
+        <v>16</v>
+      </c>
+      <c r="W46" s="4">
+        <v>1</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A47" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="4">
@@ -4754,15 +5051,13 @@
       <c r="C47" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15" t="s">
+      <c r="H47" t="s">
         <v>16</v>
       </c>
       <c r="I47" s="4">
@@ -4771,21 +5066,19 @@
       <c r="J47" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K47" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L47" s="16" t="s">
+      <c r="L47" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15" t="s">
+      <c r="O47" t="s">
         <v>16</v>
       </c>
       <c r="P47" s="4">
         <v>10</v>
       </c>
-      <c r="Q47" s="27" t="s">
+      <c r="Q47" s="25" t="s">
         <v>436</v>
       </c>
       <c r="R47" s="1" t="s">
@@ -4794,9 +5087,24 @@
       <c r="S47" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="25" t="s">
+      <c r="V47" t="s">
+        <v>16</v>
+      </c>
+      <c r="W47" s="4">
+        <v>10</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A48" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="4">
@@ -4805,15 +5113,13 @@
       <c r="C48" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15" t="s">
+      <c r="H48" t="s">
         <v>16</v>
       </c>
       <c r="I48" s="4">
@@ -4822,21 +5128,19 @@
       <c r="J48" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="L48" s="16" t="s">
+      <c r="L48" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15" t="s">
+      <c r="O48" t="s">
         <v>16</v>
       </c>
       <c r="P48" s="4">
         <v>100</v>
       </c>
-      <c r="Q48" s="27" t="s">
+      <c r="Q48" s="25" t="s">
         <v>445</v>
       </c>
       <c r="R48" s="1" t="s">
@@ -4845,9 +5149,24 @@
       <c r="S48" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="25" t="s">
+      <c r="V48" t="s">
+        <v>16</v>
+      </c>
+      <c r="W48" s="4">
+        <v>100</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A49" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="4">
@@ -4856,15 +5175,13 @@
       <c r="C49" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15" t="s">
+      <c r="H49" t="s">
         <v>16</v>
       </c>
       <c r="I49" s="4">
@@ -4873,21 +5190,19 @@
       <c r="J49" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L49" s="16" t="s">
+      <c r="L49" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15" t="s">
+      <c r="O49" t="s">
         <v>16</v>
       </c>
       <c r="P49" s="4">
         <v>1000</v>
       </c>
-      <c r="Q49" s="27" t="s">
+      <c r="Q49" s="25" t="s">
         <v>457</v>
       </c>
       <c r="R49" s="1" t="s">
@@ -4896,9 +5211,24 @@
       <c r="S49" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="25" t="s">
+      <c r="V49" t="s">
+        <v>16</v>
+      </c>
+      <c r="W49" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A50" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="4">
@@ -4907,15 +5237,13 @@
       <c r="C50" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15" t="s">
+      <c r="H50" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="4">
@@ -4924,21 +5252,19 @@
       <c r="J50" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K50" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L50" s="16" t="s">
+      <c r="L50" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15" t="s">
+      <c r="O50" t="s">
         <v>16</v>
       </c>
       <c r="P50" s="4">
         <v>10000</v>
       </c>
-      <c r="Q50" s="27" t="s">
+      <c r="Q50" s="25" t="s">
         <v>469</v>
       </c>
       <c r="R50" s="1" t="s">
@@ -4947,9 +5273,24 @@
       <c r="S50" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="25" t="s">
+      <c r="V50" t="s">
+        <v>16</v>
+      </c>
+      <c r="W50" s="4">
+        <v>10000</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A51" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="4">
@@ -4958,15 +5299,13 @@
       <c r="C51" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15" t="s">
+      <c r="H51" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="4">
@@ -4975,21 +5314,19 @@
       <c r="J51" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="K51" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="L51" s="16" t="s">
+      <c r="L51" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15" t="s">
+      <c r="O51" t="s">
         <v>21</v>
       </c>
       <c r="P51" s="4">
         <v>1</v>
       </c>
-      <c r="Q51" s="27" t="s">
+      <c r="Q51" s="25" t="s">
         <v>428</v>
       </c>
       <c r="R51" s="1" t="s">
@@ -4998,9 +5335,24 @@
       <c r="S51" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="25" t="s">
+      <c r="V51" t="s">
+        <v>21</v>
+      </c>
+      <c r="W51" s="4">
+        <v>1</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A52" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="4">
@@ -5009,15 +5361,13 @@
       <c r="C52" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15" t="s">
+      <c r="H52" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="4">
@@ -5026,21 +5376,19 @@
       <c r="J52" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K52" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="L52" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15" t="s">
+      <c r="O52" t="s">
         <v>21</v>
       </c>
       <c r="P52" s="4">
         <v>10</v>
       </c>
-      <c r="Q52" s="27" t="s">
+      <c r="Q52" s="25" t="s">
         <v>439</v>
       </c>
       <c r="R52" s="1" t="s">
@@ -5049,9 +5397,24 @@
       <c r="S52" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="25" t="s">
+      <c r="V52" t="s">
+        <v>21</v>
+      </c>
+      <c r="W52" s="4">
+        <v>10</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A53" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="4">
@@ -5060,15 +5423,13 @@
       <c r="C53" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15" t="s">
+      <c r="H53" t="s">
         <v>21</v>
       </c>
       <c r="I53" s="4">
@@ -5077,21 +5438,19 @@
       <c r="J53" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="K53" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L53" s="16" t="s">
+      <c r="L53" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15" t="s">
+      <c r="O53" t="s">
         <v>21</v>
       </c>
       <c r="P53" s="4">
         <v>100</v>
       </c>
-      <c r="Q53" s="27" t="s">
+      <c r="Q53" s="25" t="s">
         <v>448</v>
       </c>
       <c r="R53" s="1" t="s">
@@ -5100,9 +5459,24 @@
       <c r="S53" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="25" t="s">
+      <c r="V53" t="s">
+        <v>21</v>
+      </c>
+      <c r="W53" s="4">
+        <v>100</v>
+      </c>
+      <c r="X53" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A54" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="4">
@@ -5111,15 +5485,13 @@
       <c r="C54" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15" t="s">
+      <c r="H54" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="4">
@@ -5128,21 +5500,19 @@
       <c r="J54" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="K54" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L54" s="16" t="s">
+      <c r="L54" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15" t="s">
+      <c r="O54" t="s">
         <v>21</v>
       </c>
       <c r="P54" s="4">
         <v>1000</v>
       </c>
-      <c r="Q54" s="27" t="s">
+      <c r="Q54" s="25" t="s">
         <v>460</v>
       </c>
       <c r="R54" s="1" t="s">
@@ -5151,9 +5521,24 @@
       <c r="S54" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="25" t="s">
+      <c r="V54" t="s">
+        <v>21</v>
+      </c>
+      <c r="W54" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A55" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="4">
@@ -5162,15 +5547,14 @@
       <c r="C55" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="15" t="s">
+      <c r="G55" s="32"/>
+      <c r="H55" t="s">
         <v>21</v>
       </c>
       <c r="I55" s="4">
@@ -5179,21 +5563,19 @@
       <c r="J55" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="K55" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L55" s="16" t="s">
+      <c r="L55" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15" t="s">
+      <c r="O55" t="s">
         <v>21</v>
       </c>
       <c r="P55" s="4">
         <v>10000</v>
       </c>
-      <c r="Q55" s="27" t="s">
+      <c r="Q55" s="25" t="s">
         <v>472</v>
       </c>
       <c r="R55" s="1" t="s">
@@ -5202,49 +5584,42 @@
       <c r="S55" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="25"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="35"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="Q56" s="26"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="25"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="35"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="Q57" s="26"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="25" t="s">
+      <c r="V55" t="s">
+        <v>21</v>
+      </c>
+      <c r="W55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A56" s="23"/>
+      <c r="Q56" s="24"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A57" s="23"/>
+      <c r="Q57" s="24"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A58" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="15" t="s">
+      <c r="D58" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15" t="s">
+      <c r="H58" t="s">
         <v>0</v>
       </c>
       <c r="I58" s="4" t="s">
@@ -5253,21 +5628,19 @@
       <c r="J58" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K58" s="15" t="s">
+      <c r="K58" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="15" t="s">
+      <c r="L58" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15" t="s">
+      <c r="O58" t="s">
         <v>0</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="Q58" s="26" t="s">
+      <c r="Q58" s="24" t="s">
         <v>2</v>
       </c>
       <c r="R58" t="s">
@@ -5276,20 +5649,33 @@
       <c r="S58" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="25" t="s">
+      <c r="V58" t="s">
+        <v>0</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="X58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A59" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15" t="s">
+      <c r="H59" t="s">
         <v>90</v>
       </c>
       <c r="I59" s="4">
@@ -5298,21 +5684,19 @@
       <c r="J59" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="K59" s="16" t="s">
+      <c r="K59" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L59" s="16" t="s">
+      <c r="L59" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15" t="s">
+      <c r="O59" t="s">
         <v>90</v>
       </c>
       <c r="P59" s="4">
         <v>1</v>
       </c>
-      <c r="Q59" s="27" t="s">
+      <c r="Q59" s="25" t="s">
         <v>475</v>
       </c>
       <c r="R59" s="1" t="s">
@@ -5321,20 +5705,33 @@
       <c r="S59" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" s="25" t="s">
+      <c r="V59" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="W59" s="4">
+        <v>1</v>
+      </c>
+      <c r="X59" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A60" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15" t="s">
+      <c r="H60" t="s">
         <v>90</v>
       </c>
       <c r="I60" s="4">
@@ -5343,21 +5740,19 @@
       <c r="J60" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="K60" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L60" s="16" t="s">
+      <c r="L60" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15" t="s">
+      <c r="O60" t="s">
         <v>90</v>
       </c>
       <c r="P60" s="4">
         <v>10</v>
       </c>
-      <c r="Q60" s="27" t="s">
+      <c r="Q60" s="25" t="s">
         <v>478</v>
       </c>
       <c r="R60" s="1" t="s">
@@ -5366,20 +5761,33 @@
       <c r="S60" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="25" t="s">
+      <c r="V60" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="W60" s="4">
+        <v>10</v>
+      </c>
+      <c r="X60" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A61" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15" t="s">
+      <c r="H61" t="s">
         <v>90</v>
       </c>
       <c r="I61" s="4">
@@ -5388,21 +5796,19 @@
       <c r="J61" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K61" s="16" t="s">
+      <c r="K61" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L61" s="16" t="s">
+      <c r="L61" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15" t="s">
+      <c r="O61" t="s">
         <v>90</v>
       </c>
       <c r="P61" s="4">
         <v>100</v>
       </c>
-      <c r="Q61" s="27" t="s">
+      <c r="Q61" s="25" t="s">
         <v>481</v>
       </c>
       <c r="R61" s="1" t="s">
@@ -5411,20 +5817,33 @@
       <c r="S61" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="25" t="s">
+      <c r="V61" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="W61" s="4">
+        <v>100</v>
+      </c>
+      <c r="X61" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y61" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z61" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A62" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15" t="s">
+      <c r="H62" t="s">
         <v>90</v>
       </c>
       <c r="I62" s="4">
@@ -5433,21 +5852,19 @@
       <c r="J62" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K62" s="16" t="s">
+      <c r="K62" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L62" s="16" t="s">
+      <c r="L62" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15" t="s">
+      <c r="O62" t="s">
         <v>90</v>
       </c>
       <c r="P62" s="4">
         <v>1000</v>
       </c>
-      <c r="Q62" s="27" t="s">
+      <c r="Q62" s="25" t="s">
         <v>484</v>
       </c>
       <c r="R62" s="1" t="s">
@@ -5456,45 +5873,60 @@
       <c r="S62" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="28" t="s">
+      <c r="V62" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="31" t="s">
+      <c r="W62" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X62" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="Z62" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F63" s="31"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32" t="s">
+      <c r="F63" s="29"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="I63" s="29">
+      <c r="I63" s="27">
         <v>10000</v>
       </c>
-      <c r="J63" s="30" t="s">
+      <c r="J63" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="K63" s="31" t="s">
+      <c r="K63" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="L63" s="31" t="s">
+      <c r="L63" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32" t="s">
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="P63" s="29">
+      <c r="P63" s="27">
         <v>10000</v>
       </c>
-      <c r="Q63" s="33" t="s">
+      <c r="Q63" s="31" t="s">
         <v>487</v>
       </c>
       <c r="R63" s="1" t="s">
@@ -5503,68 +5935,61 @@
       <c r="S63" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="73"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="76"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="76"/>
-      <c r="O64" s="76"/>
-      <c r="P64" s="73"/>
-      <c r="Q64" s="73" t="s">
+      <c r="V63" t="s">
+        <v>90</v>
+      </c>
+      <c r="W63" s="4">
+        <v>10000</v>
+      </c>
+      <c r="X63" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="66"/>
+      <c r="C64" s="67"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="78"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="76"/>
-      <c r="L65" s="76"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="76"/>
-      <c r="O65" s="76"/>
-      <c r="P65" s="78"/>
-      <c r="Q65" s="78"/>
-    </row>
-    <row r="66" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="55" t="s">
+    <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="68"/>
+      <c r="C65" s="69"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="P65" s="68"/>
+      <c r="Q65" s="68"/>
+    </row>
+    <row r="66" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="B66" s="56"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="62"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A67" s="63" t="s">
+      <c r="B66" s="52"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A67" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -5573,15 +5998,13 @@
       <c r="C67" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15" t="s">
+      <c r="H67" t="s">
         <v>0</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -5590,19 +6013,30 @@
       <c r="J67" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K67" s="15" t="s">
+      <c r="K67" t="s">
         <v>3</v>
       </c>
-      <c r="L67" s="15" t="s">
+      <c r="L67" t="s">
         <v>4</v>
       </c>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="Q67" s="64"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A68" s="63" t="s">
+      <c r="O67" t="s">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R67" t="s">
+        <v>3</v>
+      </c>
+      <c r="S67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A68" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="4">
@@ -5611,15 +6045,13 @@
       <c r="C68" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15" t="s">
+      <c r="H68" t="s">
         <v>6</v>
       </c>
       <c r="I68" s="4">
@@ -5628,19 +6060,30 @@
       <c r="J68" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K68" s="16" t="s">
+      <c r="K68" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="L68" s="16" t="s">
+      <c r="L68" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="Q68" s="64"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A69" s="63" t="s">
+      <c r="O68" t="s">
+        <v>6</v>
+      </c>
+      <c r="P68" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A69" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="4">
@@ -5649,15 +6092,13 @@
       <c r="C69" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15" t="s">
+      <c r="H69" t="s">
         <v>6</v>
       </c>
       <c r="I69" s="4">
@@ -5666,19 +6107,30 @@
       <c r="J69" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="K69" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L69" s="16" t="s">
+      <c r="L69" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="Q69" s="64"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A70" s="63" t="s">
+      <c r="O69" t="s">
+        <v>6</v>
+      </c>
+      <c r="P69" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A70" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B70" s="4">
@@ -5687,15 +6139,13 @@
       <c r="C70" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15" t="s">
+      <c r="H70" t="s">
         <v>6</v>
       </c>
       <c r="I70" s="4">
@@ -5704,19 +6154,30 @@
       <c r="J70" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="K70" s="16" t="s">
+      <c r="K70" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L70" s="16" t="s">
+      <c r="L70" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="Q70" s="64"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A71" s="63" t="s">
+      <c r="O70" t="s">
+        <v>6</v>
+      </c>
+      <c r="P70" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A71" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="4">
@@ -5725,15 +6186,13 @@
       <c r="C71" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15" t="s">
+      <c r="H71" t="s">
         <v>6</v>
       </c>
       <c r="I71" s="4">
@@ -5742,19 +6201,30 @@
       <c r="J71" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="K71" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L71" s="16" t="s">
+      <c r="L71" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="Q71" s="64"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A72" s="63" t="s">
+      <c r="O71" t="s">
+        <v>6</v>
+      </c>
+      <c r="P71" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A72" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="4">
@@ -5763,15 +6233,13 @@
       <c r="C72" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15" t="s">
+      <c r="H72" t="s">
         <v>6</v>
       </c>
       <c r="I72" s="4">
@@ -5780,19 +6248,30 @@
       <c r="J72" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K72" s="16" t="s">
+      <c r="K72" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="L72" s="16" t="s">
+      <c r="L72" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="Q72" s="64"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A73" s="63" t="s">
+      <c r="O72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P72" s="4">
+        <v>10000</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A73" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B73" s="4">
@@ -5801,15 +6280,13 @@
       <c r="C73" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15" t="s">
+      <c r="H73" t="s">
         <v>11</v>
       </c>
       <c r="I73" s="4">
@@ -5818,19 +6295,30 @@
       <c r="J73" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="K73" s="16" t="s">
+      <c r="K73" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="L73" s="16" t="s">
+      <c r="L73" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="Q73" s="64"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A74" s="63" t="s">
+      <c r="O73" t="s">
+        <v>11</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A74" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="4">
@@ -5839,15 +6327,13 @@
       <c r="C74" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15" t="s">
+      <c r="H74" t="s">
         <v>11</v>
       </c>
       <c r="I74" s="4">
@@ -5856,19 +6342,30 @@
       <c r="J74" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="K74" s="16" t="s">
+      <c r="K74" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L74" s="16" t="s">
+      <c r="L74" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="Q74" s="64"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A75" s="63" t="s">
+      <c r="O74" t="s">
+        <v>11</v>
+      </c>
+      <c r="P74" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A75" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="4">
@@ -5877,15 +6374,13 @@
       <c r="C75" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15" t="s">
+      <c r="H75" t="s">
         <v>11</v>
       </c>
       <c r="I75" s="4">
@@ -5894,19 +6389,30 @@
       <c r="J75" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="K75" s="16" t="s">
+      <c r="K75" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L75" s="16" t="s">
+      <c r="L75" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="Q75" s="64"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A76" s="63" t="s">
+      <c r="O75" t="s">
+        <v>11</v>
+      </c>
+      <c r="P75" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A76" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="4">
@@ -5915,15 +6421,13 @@
       <c r="C76" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15" t="s">
+      <c r="H76" t="s">
         <v>11</v>
       </c>
       <c r="I76" s="4">
@@ -5932,19 +6436,30 @@
       <c r="J76" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="K76" s="16" t="s">
+      <c r="K76" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L76" s="16" t="s">
+      <c r="L76" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="Q76" s="64"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A77" s="63" t="s">
+      <c r="O76" t="s">
+        <v>11</v>
+      </c>
+      <c r="P76" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A77" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="4">
@@ -5953,15 +6468,13 @@
       <c r="C77" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15" t="s">
+      <c r="H77" t="s">
         <v>11</v>
       </c>
       <c r="I77" s="4">
@@ -5970,19 +6483,30 @@
       <c r="J77" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="K77" s="16" t="s">
+      <c r="K77" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="L77" s="16" t="s">
+      <c r="L77" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="Q77" s="64"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A78" s="63" t="s">
+      <c r="O77" t="s">
+        <v>11</v>
+      </c>
+      <c r="P77" s="4">
+        <v>10000</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A78" s="58" t="s">
         <v>175</v>
       </c>
       <c r="B78" s="4">
@@ -5991,15 +6515,13 @@
       <c r="C78" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15" t="s">
+      <c r="H78" t="s">
         <v>175</v>
       </c>
       <c r="I78" s="4">
@@ -6008,19 +6530,30 @@
       <c r="J78" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="K78" s="16" t="s">
+      <c r="K78" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="L78" s="16" t="s">
+      <c r="L78" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="Q78" s="64"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A79" s="63" t="s">
+      <c r="O78" t="s">
+        <v>175</v>
+      </c>
+      <c r="P78" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A79" s="58" t="s">
         <v>175</v>
       </c>
       <c r="B79" s="4">
@@ -6029,15 +6562,13 @@
       <c r="C79" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15" t="s">
+      <c r="H79" t="s">
         <v>175</v>
       </c>
       <c r="I79" s="4">
@@ -6046,19 +6577,30 @@
       <c r="J79" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="K79" s="16" t="s">
+      <c r="K79" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L79" s="16" t="s">
+      <c r="L79" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="Q79" s="64"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A80" s="63" t="s">
+      <c r="O79" t="s">
+        <v>175</v>
+      </c>
+      <c r="P79" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A80" s="58" t="s">
         <v>175</v>
       </c>
       <c r="B80" s="4">
@@ -6067,15 +6609,13 @@
       <c r="C80" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15" t="s">
+      <c r="H80" t="s">
         <v>175</v>
       </c>
       <c r="I80" s="4">
@@ -6084,19 +6624,30 @@
       <c r="J80" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="K80" s="16" t="s">
+      <c r="K80" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="L80" s="16" t="s">
+      <c r="L80" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="Q80" s="64"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A81" s="63" t="s">
+      <c r="O80" t="s">
+        <v>175</v>
+      </c>
+      <c r="P80" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A81" s="58" t="s">
         <v>175</v>
       </c>
       <c r="B81" s="4">
@@ -6105,15 +6656,13 @@
       <c r="C81" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15" t="s">
+      <c r="H81" t="s">
         <v>175</v>
       </c>
       <c r="I81" s="4">
@@ -6122,19 +6671,30 @@
       <c r="J81" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K81" s="16" t="s">
+      <c r="K81" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L81" s="16" t="s">
+      <c r="L81" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="Q81" s="64"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A82" s="63" t="s">
+      <c r="O81" t="s">
+        <v>175</v>
+      </c>
+      <c r="P81" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q81" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A82" s="58" t="s">
         <v>175</v>
       </c>
       <c r="B82" s="4">
@@ -6143,15 +6703,13 @@
       <c r="C82" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15" t="s">
+      <c r="H82" t="s">
         <v>175</v>
       </c>
       <c r="I82" s="4">
@@ -6160,33 +6718,33 @@
       <c r="J82" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="K82" s="16" t="s">
+      <c r="K82" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="L82" s="16" t="s">
+      <c r="L82" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="Q82" s="64"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A83" s="63"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="35"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="Q83" s="64"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A84" s="63" t="s">
+      <c r="O82" t="s">
+        <v>175</v>
+      </c>
+      <c r="P82" s="4">
+        <v>10000</v>
+      </c>
+      <c r="Q82" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A83" s="58"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A84" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -6195,24 +6753,30 @@
       <c r="C84" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="35"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="Q84" s="64"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A85" s="63" t="s">
+      <c r="O84" t="s">
+        <v>0</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q84" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R84" t="s">
+        <v>3</v>
+      </c>
+      <c r="S84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A85" s="58" t="s">
         <v>90</v>
       </c>
       <c r="B85" s="4">
@@ -6221,24 +6785,30 @@
       <c r="C85" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="35"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="Q85" s="64"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A86" s="63" t="s">
+      <c r="O85" t="s">
+        <v>90</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A86" s="58" t="s">
         <v>90</v>
       </c>
       <c r="B86" s="4">
@@ -6247,24 +6817,30 @@
       <c r="C86" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D86" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="35"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="Q86" s="64"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A87" s="63" t="s">
+      <c r="O86" t="s">
+        <v>90</v>
+      </c>
+      <c r="P86" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A87" s="58" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="4">
@@ -6273,24 +6849,30 @@
       <c r="C87" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D87" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="35"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="Q87" s="64"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A88" s="63" t="s">
+      <c r="O87" t="s">
+        <v>90</v>
+      </c>
+      <c r="P87" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q87" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A88" s="58" t="s">
         <v>90</v>
       </c>
       <c r="B88" s="4">
@@ -6299,58 +6881,74 @@
       <c r="C88" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="35"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="Q88" s="64"/>
-    </row>
-    <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="65" t="s">
+      <c r="O88" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="66">
+      <c r="P88" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q88" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="60">
         <v>10000</v>
       </c>
-      <c r="C89" s="67" t="s">
+      <c r="C89" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="D89" s="68" t="s">
+      <c r="D89" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="E89" s="68" t="s">
+      <c r="E89" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="F89" s="68"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="69"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="69"/>
-      <c r="N89" s="69"/>
-      <c r="O89" s="69"/>
-      <c r="P89" s="66"/>
-      <c r="Q89" s="72"/>
-    </row>
-    <row r="90" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F89" s="62"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="65"/>
+      <c r="K89" s="63"/>
+      <c r="L89" s="63"/>
+      <c r="M89" s="63"/>
+      <c r="N89" s="63"/>
+      <c r="O89" t="s">
+        <v>90</v>
+      </c>
+      <c r="P89" s="4">
+        <v>10000</v>
+      </c>
+      <c r="Q89" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
       <c r="I90" s="12"/>
       <c r="J90" s="14"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="14"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
@@ -6735,8 +7333,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H5:J24">
-    <sortCondition ref="H5:H24" customList="GetArticles,GetReducedArticles,GetArticlesWithPriceChatty,GetArticlesWithPriceBulky"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V36:Z55">
+    <sortCondition ref="V36:V55" customList="GetArticles,GetReducedArticles,GetArticlesWithPriceChatty,GetArticlesWithPriceBulky"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
+++ b/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\8. Semester\Bachelorarbeit\TestaufbauGit\Testaufbau\Testaufbau\BenchmarkResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3916900A-A3EA-4C8B-8364-49B5B8F05E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078B0D8-B068-47E3-A7FE-C71F535F5F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BenchmarkResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="640">
   <si>
     <t>Method</t>
   </si>
@@ -1871,6 +1871,75 @@
   </si>
   <si>
     <t>151.3445 ms</t>
+  </si>
+  <si>
+    <t>Serialisierung</t>
+  </si>
+  <si>
+    <t>STJ</t>
+  </si>
+  <si>
+    <t>518.0 ns</t>
+  </si>
+  <si>
+    <t>1.64 ns</t>
+  </si>
+  <si>
+    <t>1.53 ns</t>
+  </si>
+  <si>
+    <t>638.3 ns</t>
+  </si>
+  <si>
+    <t>6.35 ns</t>
+  </si>
+  <si>
+    <t>5.63 ns</t>
+  </si>
+  <si>
+    <t>NSJ</t>
+  </si>
+  <si>
+    <t>752.9 ns</t>
+  </si>
+  <si>
+    <t>3.67 ns</t>
+  </si>
+  <si>
+    <t>3.43 ns</t>
+  </si>
+  <si>
+    <t>1,689.8 ns</t>
+  </si>
+  <si>
+    <t>15.32 ns</t>
+  </si>
+  <si>
+    <t>14.33 ns</t>
+  </si>
+  <si>
+    <t>1,366.5 ns</t>
+  </si>
+  <si>
+    <t>7.99 ns</t>
+  </si>
+  <si>
+    <t>7.47 ns</t>
+  </si>
+  <si>
+    <t>3,307.2 ns</t>
+  </si>
+  <si>
+    <t>24.80 ns</t>
+  </si>
+  <si>
+    <t>23.19 ns</t>
+  </si>
+  <si>
+    <t>Deserialisierung</t>
+  </si>
+  <si>
+    <t>Protobuf</t>
   </si>
 </sst>
 </file>
@@ -2215,7 +2284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -2698,6 +2767,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2743,7 +2825,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2868,6 +2950,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3227,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -6950,6 +7038,144 @@
       <c r="I90" s="12"/>
       <c r="J90" s="14"/>
     </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C91" s="73"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>617</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>618</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D93" t="s">
+        <v>628</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>625</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D94" t="s">
+        <v>631</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>639</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B96" s="11"/>
+      <c r="D96" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>638</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>618</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>625</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>639</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D100" t="s">
+        <v>624</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C102" s="73"/>
+    </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>233</v>

--- a/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
+++ b/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\8. Semester\Bachelorarbeit\TestaufbauGit\Testaufbau\Testaufbau\BenchmarkResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078B0D8-B068-47E3-A7FE-C71F535F5F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA98CD3-EE81-42AC-B0C0-46523F3BD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="643">
   <si>
     <t>Method</t>
   </si>
@@ -1940,6 +1940,15 @@
   </si>
   <si>
     <t>Protobuf</t>
+  </si>
+  <si>
+    <t>Bulky ist schlechter geworden, wegen asynchisierung (Task.FromResult wurde benutzt)</t>
+  </si>
+  <si>
+    <t>Aber nur bei Größtem eine Verbesserung, sonst wie erwartet Verschlechterung zu Nutzung von speziellem Endpunkt</t>
+  </si>
+  <si>
+    <t>Verschlechterung durch "chatty" verarbeitung anstelle von einem dedizierten Endpunkt</t>
   </si>
 </sst>
 </file>
@@ -3315,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -3336,10 +3345,10 @@
     <col min="15" max="15" width="28" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="15.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.26953125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="22" width="10.90625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="10.90625" style="4" collapsed="1"/>
-    <col min="24" max="24" width="10.90625" style="9"/>
+    <col min="18" max="19" width="11.26953125" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="22" width="10.90625" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="12.81640625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="14.26953125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
@@ -4352,7 +4361,9 @@
       <c r="B32" s="66"/>
       <c r="C32" s="67"/>
       <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
+      <c r="J32" s="66" t="s">
+        <v>642</v>
+      </c>
       <c r="P32" s="66"/>
       <c r="Q32" s="66"/>
     </row>
@@ -5690,6 +5701,9 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="23"/>
+      <c r="J56" s="9" t="s">
+        <v>640</v>
+      </c>
       <c r="Q56" s="24"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
@@ -6055,7 +6069,9 @@
       <c r="I65" s="68"/>
       <c r="J65" s="68"/>
       <c r="P65" s="68"/>
-      <c r="Q65" s="68"/>
+      <c r="Q65" s="68" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A66" s="51" t="s">

--- a/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
+++ b/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\8. Semester\Bachelorarbeit\TestaufbauGit\Testaufbau\Testaufbau\BenchmarkResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA98CD3-EE81-42AC-B0C0-46523F3BD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCD7005-94A5-4509-A8DA-2B33EABE6B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="0" windowWidth="12600" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BenchmarkResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="684">
   <si>
     <t>Method</t>
   </si>
@@ -1949,6 +1949,129 @@
   </si>
   <si>
     <t>Verschlechterung durch "chatty" verarbeitung anstelle von einem dedizierten Endpunkt</t>
+  </si>
+  <si>
+    <t>1.069 ms</t>
+  </si>
+  <si>
+    <t>0.0237 ms</t>
+  </si>
+  <si>
+    <t>1.010 ms</t>
+  </si>
+  <si>
+    <t>0.0154 ms</t>
+  </si>
+  <si>
+    <t>0.0129 ms</t>
+  </si>
+  <si>
+    <t>1.206 ms</t>
+  </si>
+  <si>
+    <t>0.0191 ms</t>
+  </si>
+  <si>
+    <t>0.0234 ms</t>
+  </si>
+  <si>
+    <t>1.173 ms</t>
+  </si>
+  <si>
+    <t>0.0213 ms</t>
+  </si>
+  <si>
+    <t>0.0209 ms</t>
+  </si>
+  <si>
+    <t>1.079 ms</t>
+  </si>
+  <si>
+    <t>0.0098 ms</t>
+  </si>
+  <si>
+    <t>0.0076 ms</t>
+  </si>
+  <si>
+    <t>1.930 ms</t>
+  </si>
+  <si>
+    <t>0.0091 ms</t>
+  </si>
+  <si>
+    <t>2.161 ms</t>
+  </si>
+  <si>
+    <t>0.0426 ms</t>
+  </si>
+  <si>
+    <t>0.0456 ms</t>
+  </si>
+  <si>
+    <t>1.562 ms</t>
+  </si>
+  <si>
+    <t>0.0264 ms</t>
+  </si>
+  <si>
+    <t>8.952 ms</t>
+  </si>
+  <si>
+    <t>0.1757 ms</t>
+  </si>
+  <si>
+    <t>0.1805 ms</t>
+  </si>
+  <si>
+    <t>11.651 ms</t>
+  </si>
+  <si>
+    <t>0.1233 ms</t>
+  </si>
+  <si>
+    <t>6.254 ms</t>
+  </si>
+  <si>
+    <t>0.1079 ms</t>
+  </si>
+  <si>
+    <t>0.0901 ms</t>
+  </si>
+  <si>
+    <t>71.041 ms</t>
+  </si>
+  <si>
+    <t>0.4321 ms</t>
+  </si>
+  <si>
+    <t>0.4042 ms</t>
+  </si>
+  <si>
+    <t>103.338 ms</t>
+  </si>
+  <si>
+    <t>0.7706 ms</t>
+  </si>
+  <si>
+    <t>0.6016 ms</t>
+  </si>
+  <si>
+    <t>54.928 ms</t>
+  </si>
+  <si>
+    <t>0.9212 ms</t>
+  </si>
+  <si>
+    <t>0.7692 ms</t>
+  </si>
+  <si>
+    <t>725.548 ms</t>
+  </si>
+  <si>
+    <t>14.2297 ms</t>
+  </si>
+  <si>
+    <t>21.2983 ms</t>
   </si>
 </sst>
 </file>
@@ -2834,7 +2957,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2967,6 +3090,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3324,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="P49" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -3346,9 +3470,11 @@
     <col min="16" max="16" width="15.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.26953125" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="22" width="10.90625" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="12.81640625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="14.26953125" style="9" customWidth="1"/>
+    <col min="20" max="21" width="10.90625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="28" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="15.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
@@ -6063,7 +6189,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B65" s="68"/>
       <c r="C65" s="69"/>
       <c r="I65" s="68"/>
@@ -6073,7 +6199,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A66" s="51" t="s">
         <v>249</v>
       </c>
@@ -6092,7 +6218,7 @@
       <c r="N66" s="55"/>
       <c r="O66" s="55"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="58" t="s">
         <v>0</v>
       </c>
@@ -6138,8 +6264,23 @@
       <c r="S67" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V67" t="s">
+        <v>0</v>
+      </c>
+      <c r="W67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X67" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="58" t="s">
         <v>6</v>
       </c>
@@ -6185,8 +6326,23 @@
       <c r="S68" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V68" t="s">
+        <v>6</v>
+      </c>
+      <c r="W68" s="4">
+        <v>1</v>
+      </c>
+      <c r="X68" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="58" t="s">
         <v>6</v>
       </c>
@@ -6232,8 +6388,23 @@
       <c r="S69" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V69" t="s">
+        <v>6</v>
+      </c>
+      <c r="W69" s="4">
+        <v>10</v>
+      </c>
+      <c r="X69" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="58" t="s">
         <v>6</v>
       </c>
@@ -6279,8 +6450,23 @@
       <c r="S70" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V70" t="s">
+        <v>6</v>
+      </c>
+      <c r="W70" s="4">
+        <v>100</v>
+      </c>
+      <c r="X70" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="58" t="s">
         <v>6</v>
       </c>
@@ -6326,8 +6512,23 @@
       <c r="S71" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V71" t="s">
+        <v>6</v>
+      </c>
+      <c r="W71" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X71" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="58" t="s">
         <v>6</v>
       </c>
@@ -6373,8 +6574,23 @@
       <c r="S72" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W72" s="4">
+        <v>10000</v>
+      </c>
+      <c r="X72" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>676</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="58" t="s">
         <v>11</v>
       </c>
@@ -6420,8 +6636,23 @@
       <c r="S73" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V73" t="s">
+        <v>11</v>
+      </c>
+      <c r="W73" s="4">
+        <v>1</v>
+      </c>
+      <c r="X73" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>646</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="58" t="s">
         <v>11</v>
       </c>
@@ -6467,8 +6698,23 @@
       <c r="S74" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V74" t="s">
+        <v>11</v>
+      </c>
+      <c r="W74" s="4">
+        <v>10</v>
+      </c>
+      <c r="X74" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="58" t="s">
         <v>11</v>
       </c>
@@ -6514,8 +6760,23 @@
       <c r="S75" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V75" t="s">
+        <v>11</v>
+      </c>
+      <c r="W75" s="4">
+        <v>100</v>
+      </c>
+      <c r="X75" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="58" t="s">
         <v>11</v>
       </c>
@@ -6561,8 +6822,23 @@
       <c r="S76" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V76" t="s">
+        <v>11</v>
+      </c>
+      <c r="W76" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X76" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>670</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="58" t="s">
         <v>11</v>
       </c>
@@ -6608,8 +6884,23 @@
       <c r="S77" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V77" t="s">
+        <v>11</v>
+      </c>
+      <c r="W77" s="4">
+        <v>10000</v>
+      </c>
+      <c r="X77" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="58" t="s">
         <v>175</v>
       </c>
@@ -6655,8 +6946,23 @@
       <c r="S78" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V78" t="s">
+        <v>175</v>
+      </c>
+      <c r="W78" s="4">
+        <v>1</v>
+      </c>
+      <c r="X78" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="58" t="s">
         <v>175</v>
       </c>
@@ -6702,8 +7008,23 @@
       <c r="S79" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V79" t="s">
+        <v>175</v>
+      </c>
+      <c r="W79" s="4">
+        <v>10</v>
+      </c>
+      <c r="X79" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="58" t="s">
         <v>175</v>
       </c>
@@ -6749,8 +7070,23 @@
       <c r="S80" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V80" t="s">
+        <v>175</v>
+      </c>
+      <c r="W80" s="4">
+        <v>100</v>
+      </c>
+      <c r="X80" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>665</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="58" t="s">
         <v>175</v>
       </c>
@@ -6796,8 +7132,23 @@
       <c r="S81" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V81" t="s">
+        <v>175</v>
+      </c>
+      <c r="W81" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X81" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>673</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="58" t="s">
         <v>175</v>
       </c>
@@ -6843,11 +7194,27 @@
       <c r="S82" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V82" t="s">
+        <v>175</v>
+      </c>
+      <c r="W82" s="4">
+        <v>10000</v>
+      </c>
+      <c r="X82" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>682</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="58"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="X83" s="74"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="58" t="s">
         <v>0</v>
       </c>
@@ -6879,7 +7246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="58" t="s">
         <v>90</v>
       </c>
@@ -6911,7 +7278,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="58" t="s">
         <v>90</v>
       </c>
@@ -6943,7 +7310,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="58" t="s">
         <v>90</v>
       </c>
@@ -6975,7 +7342,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="58" t="s">
         <v>90</v>
       </c>
@@ -7007,7 +7374,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="59" t="s">
         <v>90</v>
       </c>
@@ -7048,16 +7415,16 @@
         <v>547</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
       <c r="I90" s="12"/>
       <c r="J90" s="14"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C91" s="73"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>617</v>
       </c>
@@ -7071,7 +7438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>618</v>
       </c>
@@ -7088,7 +7455,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>625</v>
       </c>
@@ -7105,7 +7472,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>639</v>
       </c>
@@ -7124,7 +7491,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B96" s="11"/>
       <c r="D96" t="s">
         <v>637</v>
@@ -7575,8 +7942,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V36:Z55">
-    <sortCondition ref="V36:V55" customList="GetArticles,GetReducedArticles,GetArticlesWithPriceChatty,GetArticlesWithPriceBulky"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V68:Z82">
+    <sortCondition ref="V68:V82" customList="GetArticles,GetReducedArticles,GetArticlesWithPriceChatty,GetArticlesWithPriceBulky"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
+++ b/Testaufbau/BenchmarkResults/BenchmarkResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\8. Semester\Bachelorarbeit\TestaufbauGit\Testaufbau\Testaufbau\BenchmarkResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCD7005-94A5-4509-A8DA-2B33EABE6B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E116C0-C8E7-406B-B9B1-EE7E5C659A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="0" windowWidth="12600" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BenchmarkResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="698">
   <si>
     <t>Method</t>
   </si>
@@ -2072,6 +2072,48 @@
   </si>
   <si>
     <t>21.2983 ms</t>
+  </si>
+  <si>
+    <t>2.322 ms</t>
+  </si>
+  <si>
+    <t>0.0222 ms</t>
+  </si>
+  <si>
+    <t>6.465 ms</t>
+  </si>
+  <si>
+    <t>0.0298 ms</t>
+  </si>
+  <si>
+    <t>0.0249 ms</t>
+  </si>
+  <si>
+    <t>8.270 ms</t>
+  </si>
+  <si>
+    <t>0.0364 ms</t>
+  </si>
+  <si>
+    <t>98.144 ms</t>
+  </si>
+  <si>
+    <t>9.5350 ms</t>
+  </si>
+  <si>
+    <t>27.6628 ms</t>
+  </si>
+  <si>
+    <t>207.746 ms</t>
+  </si>
+  <si>
+    <t>4.0595 ms</t>
+  </si>
+  <si>
+    <t>3.5987 ms</t>
+  </si>
+  <si>
+    <t>Actually working DataLoader</t>
   </si>
 </sst>
 </file>
@@ -3446,10 +3488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z185"/>
+  <dimension ref="A1:AG185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P49" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="Z59" zoomScale="126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD67" sqref="AD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -3475,6 +3517,11 @@
     <col min="23" max="23" width="15.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
@@ -6189,7 +6236,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B65" s="68"/>
       <c r="C65" s="69"/>
       <c r="I65" s="68"/>
@@ -6199,7 +6246,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A66" s="51" t="s">
         <v>249</v>
       </c>
@@ -6218,7 +6265,7 @@
       <c r="N66" s="55"/>
       <c r="O66" s="55"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" s="58" t="s">
         <v>0</v>
       </c>
@@ -6280,7 +6327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" s="58" t="s">
         <v>6</v>
       </c>
@@ -6332,17 +6379,17 @@
       <c r="W68" s="4">
         <v>1</v>
       </c>
-      <c r="X68" s="9" t="s">
+      <c r="X68" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Y68" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Z68" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" s="58" t="s">
         <v>6</v>
       </c>
@@ -6394,17 +6441,17 @@
       <c r="W69" s="4">
         <v>10</v>
       </c>
-      <c r="X69" s="9" t="s">
+      <c r="X69" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Y69" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Z69" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" s="58" t="s">
         <v>6</v>
       </c>
@@ -6456,17 +6503,17 @@
       <c r="W70" s="4">
         <v>100</v>
       </c>
-      <c r="X70" s="9" t="s">
+      <c r="X70" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Y70" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Z70" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" s="58" t="s">
         <v>6</v>
       </c>
@@ -6518,17 +6565,17 @@
       <c r="W71" s="4">
         <v>1000</v>
       </c>
-      <c r="X71" s="9" t="s">
+      <c r="X71" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Y71" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Z71" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" s="58" t="s">
         <v>6</v>
       </c>
@@ -6580,17 +6627,17 @@
       <c r="W72" s="4">
         <v>10000</v>
       </c>
-      <c r="X72" s="9" t="s">
+      <c r="X72" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Y72" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Z72" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" s="58" t="s">
         <v>11</v>
       </c>
@@ -6642,17 +6689,17 @@
       <c r="W73" s="4">
         <v>1</v>
       </c>
-      <c r="X73" s="9" t="s">
+      <c r="X73" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Y73" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Z73" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" s="58" t="s">
         <v>11</v>
       </c>
@@ -6704,17 +6751,17 @@
       <c r="W74" s="4">
         <v>10</v>
       </c>
-      <c r="X74" s="9" t="s">
+      <c r="X74" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Y74" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Z74" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" s="58" t="s">
         <v>11</v>
       </c>
@@ -6766,17 +6813,17 @@
       <c r="W75" s="4">
         <v>100</v>
       </c>
-      <c r="X75" s="9" t="s">
+      <c r="X75" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Y75" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Z75" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" s="58" t="s">
         <v>11</v>
       </c>
@@ -6828,17 +6875,17 @@
       <c r="W76" s="4">
         <v>1000</v>
       </c>
-      <c r="X76" s="9" t="s">
+      <c r="X76" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Y76" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Z76" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" s="58" t="s">
         <v>11</v>
       </c>
@@ -6890,17 +6937,32 @@
       <c r="W77" s="4">
         <v>10000</v>
       </c>
-      <c r="X77" s="9" t="s">
+      <c r="X77" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Y77" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Z77" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" s="58" t="s">
         <v>175</v>
       </c>
@@ -6952,17 +7014,33 @@
       <c r="W78" s="4">
         <v>1</v>
       </c>
-      <c r="X78" s="9" t="s">
+      <c r="X78" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Y78" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Z78" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB78" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC78">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE78" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="AF78" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG78" s="1"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" s="58" t="s">
         <v>175</v>
       </c>
@@ -7014,17 +7092,33 @@
       <c r="W79" s="4">
         <v>10</v>
       </c>
-      <c r="X79" s="9" t="s">
+      <c r="X79" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Y79" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Z79" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB79" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC79">
+        <v>10</v>
+      </c>
+      <c r="AD79" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="AE79" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="AF79" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="AG79" s="1"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" s="58" t="s">
         <v>175</v>
       </c>
@@ -7076,17 +7170,33 @@
       <c r="W80" s="4">
         <v>100</v>
       </c>
-      <c r="X80" s="9" t="s">
+      <c r="X80" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Y80" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Z80" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB80" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC80">
+        <v>100</v>
+      </c>
+      <c r="AD80" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE80" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF80" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="AG80" s="1"/>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" s="58" t="s">
         <v>175</v>
       </c>
@@ -7138,17 +7248,33 @@
       <c r="W81" s="4">
         <v>1000</v>
       </c>
-      <c r="X81" s="9" t="s">
+      <c r="X81" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Y81" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Z81" s="1" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB81" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC81">
+        <v>1000</v>
+      </c>
+      <c r="AD81" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="AE81" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="AF81" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="AG81" s="1"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" s="58" t="s">
         <v>175</v>
       </c>
@@ -7200,21 +7326,40 @@
       <c r="W82" s="4">
         <v>10000</v>
       </c>
-      <c r="X82" s="9" t="s">
+      <c r="X82" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Y82" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Z82" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB82" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC82">
+        <v>10000</v>
+      </c>
+      <c r="AD82" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE82" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="AF82" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AG82" s="1"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" s="58"/>
       <c r="X83" s="74"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB83" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" s="58" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" s="58" t="s">
         <v>90</v>
       </c>
@@ -7278,7 +7423,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" s="58" t="s">
         <v>90</v>
       </c>
@@ -7310,7 +7455,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" s="58" t="s">
         <v>90</v>
       </c>
@@ -7342,7 +7487,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" s="58" t="s">
         <v>90</v>
       </c>
@@ -7374,7 +7519,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="59" t="s">
         <v>90</v>
       </c>
@@ -7415,16 +7560,16 @@
         <v>547</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
       <c r="I90" s="12"/>
       <c r="J90" s="14"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C91" s="73"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>617</v>
       </c>
@@ -7438,7 +7583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>618</v>
       </c>
@@ -7455,7 +7600,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>625</v>
       </c>
@@ -7472,7 +7617,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>639</v>
       </c>
@@ -7491,7 +7636,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B96" s="11"/>
       <c r="D96" t="s">
         <v>637</v>
